--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_25_33.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_25_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>946723.7841935214</v>
+        <v>942538.9630443514</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6463284.468165412</v>
+        <v>6463284.468165411</v>
       </c>
     </row>
     <row r="9">
@@ -1378,16 +1378,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>357.9428177618944</v>
       </c>
       <c r="G11" t="n">
-        <v>212.6615473203996</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
@@ -1539,16 +1539,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>131.0206200144772</v>
       </c>
       <c r="I13" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811442</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>142.9822731108078</v>
+        <v>136.3302774754765</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U13" t="n">
-        <v>202.8539831185446</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1593,7 +1593,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1615,10 +1615,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>395.5076644073176</v>
@@ -1660,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>232.5736584664561</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>352.3954878227169</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>44.17482029426311</v>
+        <v>44.1748202942631</v>
       </c>
       <c r="T15" t="n">
         <v>124.8306395731037</v>
@@ -1767,7 +1767,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -1776,16 +1776,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>60.07073011995501</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>62.46433369811442</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T16" t="n">
         <v>239.8247518556274</v>
@@ -1833,7 +1833,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>87.51192310806708</v>
       </c>
     </row>
     <row r="17">
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>179.6294631413586</v>
       </c>
       <c r="C17" t="n">
-        <v>189.6554371447624</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1900,16 +1900,16 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>44.17482029426311</v>
+        <v>44.1748202942631</v>
       </c>
       <c r="T18" t="n">
         <v>124.8306395731037</v>
@@ -2013,13 +2013,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>61.67060262641429</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>239.8247518556274</v>
+        <v>124.9554984777222</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2083,13 +2083,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>214.230991478422</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>187.8112552393228</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
@@ -2250,13 +2250,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>25.89258885029817</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U22" t="n">
         <v>275.6027656317444</v>
@@ -2301,10 +2301,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>91.29868241717278</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2320,22 +2320,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>233.801151800707</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>265.9270524809863</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>37.62017337824729</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.1845183053605</v>
       </c>
       <c r="U23" t="n">
         <v>256.471413082989</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>256.1794364724052</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -2490,7 +2490,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>16.13626634197867</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>142.1447028811674</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>239.619400782111</v>
@@ -2541,7 +2541,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>116.9294005807324</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
         <v>395.4005208984156</v>
       </c>
       <c r="H26" t="n">
-        <v>265.9270524809863</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>209.1845183053605</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.471413082989</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>37.1993351037988</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>307.0493541307978</v>
       </c>
     </row>
     <row r="27">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>177.31727270851</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
@@ -2721,10 +2721,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>131.6400766569606</v>
       </c>
       <c r="G28" t="n">
         <v>163.0457076940604</v>
@@ -2733,7 +2733,7 @@
         <v>130.593315014692</v>
       </c>
       <c r="I28" t="n">
-        <v>61.01901167430096</v>
+        <v>61.01901167430097</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2775,13 +2775,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -2794,16 +2794,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2851,16 +2851,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>347.238899732836</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>280.413300249155</v>
       </c>
     </row>
     <row r="30">
@@ -2955,7 +2955,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>17.30977151841072</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2967,10 +2967,10 @@
         <v>163.0457076940604</v>
       </c>
       <c r="H31" t="n">
-        <v>130.593315014692</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>61.01901167430096</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.1447028811674</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>239.619400782111</v>
@@ -3009,10 +3009,10 @@
         <v>275.6001441286783</v>
       </c>
       <c r="V31" t="n">
-        <v>72.72562249560333</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
@@ -3034,13 +3034,13 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>345.0285386217249</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.1845183053605</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3091,10 +3091,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>98.57620645775086</v>
       </c>
       <c r="Y32" t="n">
         <v>404.2032624633431</v>
@@ -3195,16 +3195,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.0457076940604</v>
+        <v>42.05198717258121</v>
       </c>
       <c r="H34" t="n">
-        <v>130.593315014692</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>142.1447028811674</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>239.619400782111</v>
       </c>
       <c r="U34" t="n">
-        <v>237.7167885440163</v>
+        <v>275.6001441286783</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -3271,13 +3271,13 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>345.028538621724</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>37.6201733782473</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>242.7931268709073</v>
       </c>
     </row>
     <row r="36">
@@ -3426,10 +3426,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -3438,13 +3438,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>49.76216419777877</v>
       </c>
       <c r="H37" t="n">
         <v>130.593315014692</v>
       </c>
       <c r="I37" t="n">
-        <v>56.37904572889354</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3511,16 +3511,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>395.4005208984156</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>265.9270524809863</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>37.62017337824729</v>
+        <v>37.6201733782473</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.1845183053605</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.471413082989</v>
       </c>
       <c r="V38" t="n">
-        <v>269.4291807525506</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>31.88116900587521</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3742,19 +3742,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>186.4628813588573</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>395.4005208984156</v>
+        <v>176.7428364009153</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3802,10 +3802,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.0457076940604</v>
       </c>
       <c r="H43" t="n">
-        <v>2.872984318307897</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>61.01901167430096</v>
+        <v>61.01901167430097</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>232.0238775807244</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>242.7931268709076</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>37.62017337824729</v>
+        <v>37.6201733782473</v>
       </c>
       <c r="T44" t="n">
-        <v>209.1845183053605</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.471413082989</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>313.3255412281412</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4140,10 +4140,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>28.65770667082566</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>104.1517534575537</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
@@ -4152,7 +4152,7 @@
         <v>163.0457076940604</v>
       </c>
       <c r="H46" t="n">
-        <v>130.593315014692</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4194,7 +4194,7 @@
         <v>275.6001441286783</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4203,7 +4203,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1997.710627381563</v>
+        <v>1952.041453747391</v>
       </c>
       <c r="C11" t="n">
-        <v>1559.568154564987</v>
+        <v>1513.898980930814</v>
       </c>
       <c r="D11" t="n">
-        <v>1123.658369739431</v>
+        <v>1077.989196105259</v>
       </c>
       <c r="E11" t="n">
-        <v>689.8836248977263</v>
+        <v>1077.989196105259</v>
       </c>
       <c r="F11" t="n">
-        <v>262.0161953069341</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G11" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001356</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867027</v>
       </c>
       <c r="M11" t="n">
         <v>1131.58869045549</v>
@@ -5062,7 +5062,7 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q11" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R11" t="n">
         <v>2360.327577447737</v>
@@ -5077,16 +5077,16 @@
         <v>2360.327577447737</v>
       </c>
       <c r="V11" t="n">
-        <v>1997.710627381563</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="W11" t="n">
-        <v>1997.710627381563</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="X11" t="n">
-        <v>1997.710627381563</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="Y11" t="n">
-        <v>1997.710627381563</v>
+        <v>1952.041453747391</v>
       </c>
     </row>
     <row r="12">
@@ -5114,7 +5114,7 @@
         <v>79.1492015823585</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I12" t="n">
         <v>81.42328772043086</v>
@@ -5123,19 +5123,19 @@
         <v>175.316627066898</v>
       </c>
       <c r="K12" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210677</v>
       </c>
       <c r="L12" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960902</v>
       </c>
       <c r="M12" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987876</v>
       </c>
       <c r="N12" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O12" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P12" t="n">
         <v>1488.088567599445</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>787.3860690861721</v>
+        <v>915.5847871853875</v>
       </c>
       <c r="C13" t="n">
-        <v>787.3860690861721</v>
+        <v>743.0230756686125</v>
       </c>
       <c r="D13" t="n">
-        <v>621.5080762876948</v>
+        <v>577.1450828701352</v>
       </c>
       <c r="E13" t="n">
-        <v>451.7500725384321</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="F13" t="n">
-        <v>275.0430185001883</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G13" t="n">
-        <v>110.3018381127067</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H13" t="n">
         <v>110.3018381127067</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="J13" t="n">
         <v>192.6919004158277</v>
@@ -5220,31 +5220,31 @@
         <v>2105.896438675982</v>
       </c>
       <c r="Q13" t="n">
-        <v>2343.856484770969</v>
+        <v>2343.85648477097</v>
       </c>
       <c r="R13" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S13" t="n">
-        <v>2215.901038951972</v>
+        <v>2222.620226462408</v>
       </c>
       <c r="T13" t="n">
-        <v>2215.901038951972</v>
+        <v>1980.373002365814</v>
       </c>
       <c r="U13" t="n">
-        <v>2010.998025700917</v>
+        <v>1701.986370414557</v>
       </c>
       <c r="V13" t="n">
-        <v>1724.042517571347</v>
+        <v>1415.030862284988</v>
       </c>
       <c r="W13" t="n">
-        <v>1452.016113157639</v>
+        <v>1143.004457871279</v>
       </c>
       <c r="X13" t="n">
-        <v>1206.624358491051</v>
+        <v>1143.004457871279</v>
       </c>
       <c r="Y13" t="n">
-        <v>979.2046878051592</v>
+        <v>915.5847871853875</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1578.072968758064</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="C14" t="n">
-        <v>1578.072968758064</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D14" t="n">
-        <v>1578.072968758064</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E14" t="n">
-        <v>1144.298223916359</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F14" t="n">
         <v>716.4307943255671</v>
@@ -5272,34 +5272,34 @@
         <v>316.9281030050443</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001351</v>
+        <v>118.4065018001356</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435804</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L14" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867027</v>
       </c>
       <c r="M14" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N14" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O14" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P14" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q14" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R14" t="n">
         <v>2360.327577447737</v>
@@ -5308,22 +5308,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T14" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.55632591685</v>
       </c>
       <c r="U14" t="n">
-        <v>2360.327577447737</v>
+        <v>1913.633438576995</v>
       </c>
       <c r="V14" t="n">
-        <v>2360.327577447737</v>
+        <v>1551.016488510822</v>
       </c>
       <c r="W14" t="n">
-        <v>2360.327577447737</v>
+        <v>1551.016488510822</v>
       </c>
       <c r="X14" t="n">
-        <v>2004.372539242972</v>
+        <v>1551.016488510822</v>
       </c>
       <c r="Y14" t="n">
-        <v>2004.372539242972</v>
+        <v>1142.730364810475</v>
       </c>
     </row>
     <row r="15">
@@ -5336,43 +5336,43 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C15" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D15" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E15" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F15" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G15" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J15" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K15" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L15" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960907</v>
       </c>
       <c r="M15" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987882</v>
       </c>
       <c r="N15" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O15" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P15" t="n">
         <v>1488.088567599445</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>616.0817647851416</v>
+        <v>610.6790150479284</v>
       </c>
       <c r="C16" t="n">
-        <v>443.5200532683665</v>
+        <v>610.6790150479284</v>
       </c>
       <c r="D16" t="n">
-        <v>277.6420604698892</v>
+        <v>444.801022249451</v>
       </c>
       <c r="E16" t="n">
-        <v>107.8840567206265</v>
+        <v>275.0430185001883</v>
       </c>
       <c r="F16" t="n">
-        <v>47.20655154895473</v>
+        <v>275.0430185001883</v>
       </c>
       <c r="G16" t="n">
-        <v>47.20655154895473</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H16" t="n">
-        <v>47.20655154895473</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="J16" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K16" t="n">
-        <v>564.2504555545214</v>
+        <v>564.2504555545215</v>
       </c>
       <c r="L16" t="n">
-        <v>1106.33113894078</v>
+        <v>1106.331138940781</v>
       </c>
       <c r="M16" t="n">
-        <v>1236.93553127931</v>
+        <v>1412.355695376306</v>
       </c>
       <c r="N16" t="n">
-        <v>1364.434443083199</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O16" t="n">
-        <v>1657.620488527956</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P16" t="n">
-        <v>2105.896438675981</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q16" t="n">
-        <v>2343.856484770969</v>
+        <v>2343.85648477097</v>
       </c>
       <c r="R16" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S16" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T16" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U16" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V16" t="n">
-        <v>1552.738213270316</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W16" t="n">
-        <v>1280.711808856608</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X16" t="n">
-        <v>1035.320054190021</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="Y16" t="n">
-        <v>807.9003835041287</v>
+        <v>802.4976337669154</v>
       </c>
     </row>
     <row r="17">
@@ -5491,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1536.32965943808</v>
+        <v>1152.340579151123</v>
       </c>
       <c r="C17" t="n">
-        <v>1344.758510807007</v>
+        <v>1152.340579151123</v>
       </c>
       <c r="D17" t="n">
-        <v>908.8487259814518</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E17" t="n">
-        <v>475.073981139747</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F17" t="n">
-        <v>47.20655154895473</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G17" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001351</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435804</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L17" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867027</v>
       </c>
       <c r="M17" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N17" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O17" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P17" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q17" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R17" t="n">
         <v>2360.327577447737</v>
@@ -5548,19 +5548,19 @@
         <v>2360.327577447737</v>
       </c>
       <c r="U17" t="n">
-        <v>2360.327577447737</v>
+        <v>2101.256885969251</v>
       </c>
       <c r="V17" t="n">
-        <v>2360.327577447737</v>
+        <v>1738.639935903078</v>
       </c>
       <c r="W17" t="n">
-        <v>1955.47212285877</v>
+        <v>1333.784481314111</v>
       </c>
       <c r="X17" t="n">
-        <v>1536.32965943808</v>
+        <v>1333.784481314111</v>
       </c>
       <c r="Y17" t="n">
-        <v>1536.32965943808</v>
+        <v>1333.784481314111</v>
       </c>
     </row>
     <row r="18">
@@ -5576,40 +5576,40 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D18" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E18" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F18" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G18" t="n">
-        <v>79.14920158235849</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I18" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043032</v>
       </c>
       <c r="J18" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668975</v>
       </c>
       <c r="K18" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210677</v>
       </c>
       <c r="L18" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960902</v>
       </c>
       <c r="M18" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987876</v>
       </c>
       <c r="N18" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O18" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P18" t="n">
         <v>1488.088567599445</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>750.041858240633</v>
+        <v>732.1113136517137</v>
       </c>
       <c r="C19" t="n">
-        <v>577.480146723858</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="D19" t="n">
-        <v>411.6021539253807</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E19" t="n">
-        <v>241.8441501761179</v>
+        <v>223.9136055871986</v>
       </c>
       <c r="F19" t="n">
-        <v>179.5506121696388</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="G19" t="n">
-        <v>179.5506121696388</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="H19" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I19" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="J19" t="n">
         <v>106.1122152511379</v>
       </c>
       <c r="K19" t="n">
-        <v>477.6707703898316</v>
+        <v>202.9123158186961</v>
       </c>
       <c r="L19" t="n">
-        <v>601.5415720081295</v>
+        <v>481.9462364092382</v>
       </c>
       <c r="M19" t="n">
-        <v>732.1459643466588</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N19" t="n">
-        <v>1288.378132818745</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O19" t="n">
-        <v>1825.813263392288</v>
+        <v>2173.320157362631</v>
       </c>
       <c r="P19" t="n">
-        <v>2274.089213540313</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q19" t="n">
-        <v>2343.856484770969</v>
+        <v>2343.85648477097</v>
       </c>
       <c r="R19" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S19" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T19" t="n">
-        <v>1973.653814855378</v>
+        <v>2234.109902217715</v>
       </c>
       <c r="U19" t="n">
-        <v>1973.653814855378</v>
+        <v>1955.723270266458</v>
       </c>
       <c r="V19" t="n">
-        <v>1686.698306725808</v>
+        <v>1668.767762136888</v>
       </c>
       <c r="W19" t="n">
-        <v>1414.6719023121</v>
+        <v>1396.74135772318</v>
       </c>
       <c r="X19" t="n">
-        <v>1169.280147645512</v>
+        <v>1151.349603056593</v>
       </c>
       <c r="Y19" t="n">
-        <v>941.8604769596202</v>
+        <v>923.9299323707007</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>701.7439652528263</v>
+        <v>916.8910812162151</v>
       </c>
       <c r="C20" t="n">
-        <v>263.6014924362497</v>
+        <v>916.8910812162151</v>
       </c>
       <c r="D20" t="n">
-        <v>263.6014924362497</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="E20" t="n">
-        <v>263.6014924362497</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="F20" t="n">
-        <v>263.6014924362497</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="G20" t="n">
-        <v>263.6014924362497</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435814</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228024</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286703</v>
       </c>
       <c r="M20" t="n">
         <v>1131.58869045549</v>
       </c>
       <c r="N20" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431968</v>
       </c>
       <c r="O20" t="n">
         <v>1775.96950697326</v>
@@ -5773,7 +5773,7 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q20" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R20" t="n">
         <v>2360.327577447737</v>
@@ -5791,13 +5791,13 @@
         <v>2360.327577447737</v>
       </c>
       <c r="W20" t="n">
-        <v>1955.47212285877</v>
+        <v>2170.619238822159</v>
       </c>
       <c r="X20" t="n">
-        <v>1536.329659438081</v>
+        <v>1751.47677540147</v>
       </c>
       <c r="Y20" t="n">
-        <v>1128.043535737734</v>
+        <v>1343.190651701123</v>
       </c>
     </row>
     <row r="21">
@@ -5813,19 +5813,19 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D21" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E21" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F21" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G21" t="n">
         <v>79.1492015823585</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I21" t="n">
         <v>81.42328772043086</v>
@@ -5840,7 +5840,7 @@
         <v>551.5786779960906</v>
       </c>
       <c r="M21" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N21" t="n">
         <v>1061.861364220108</v>
@@ -5886,52 +5886,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>713.9024503859703</v>
+        <v>896.8524940391953</v>
       </c>
       <c r="C22" t="n">
-        <v>541.3407388691952</v>
+        <v>724.2907825224203</v>
       </c>
       <c r="D22" t="n">
-        <v>375.4627460707179</v>
+        <v>558.412789723943</v>
       </c>
       <c r="E22" t="n">
-        <v>205.7047423214552</v>
+        <v>388.6547859746802</v>
       </c>
       <c r="F22" t="n">
-        <v>205.7047423214552</v>
+        <v>211.9477319364364</v>
       </c>
       <c r="G22" t="n">
-        <v>179.5506121696388</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="H22" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="J22" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K22" t="n">
-        <v>564.2504555545214</v>
+        <v>202.9123158186961</v>
       </c>
       <c r="L22" t="n">
-        <v>1106.33113894078</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M22" t="n">
-        <v>1412.355695376305</v>
+        <v>910.964192855309</v>
       </c>
       <c r="N22" t="n">
-        <v>1539.854607180195</v>
+        <v>1480.721907816843</v>
       </c>
       <c r="O22" t="n">
-        <v>1657.620488527957</v>
+        <v>1825.813263392289</v>
       </c>
       <c r="P22" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q22" t="n">
-        <v>2343.856484770969</v>
+        <v>2343.85648477097</v>
       </c>
       <c r="R22" t="n">
         <v>2360.327577447737</v>
@@ -5940,22 +5940,22 @@
         <v>2215.901038951972</v>
       </c>
       <c r="T22" t="n">
-        <v>2215.901038951972</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U22" t="n">
-        <v>1937.514407000715</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V22" t="n">
-        <v>1650.558898871145</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W22" t="n">
-        <v>1378.532494457437</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="X22" t="n">
-        <v>1133.140739790849</v>
+        <v>1316.090783444074</v>
       </c>
       <c r="Y22" t="n">
-        <v>905.7210691049575</v>
+        <v>1088.671112758183</v>
       </c>
     </row>
     <row r="23">
@@ -5965,49 +5965,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1416.320990606195</v>
+        <v>1357.729854736632</v>
       </c>
       <c r="C23" t="n">
-        <v>1416.320990606195</v>
+        <v>919.5873819200556</v>
       </c>
       <c r="D23" t="n">
-        <v>1416.320990606195</v>
+        <v>483.6775970945001</v>
       </c>
       <c r="E23" t="n">
-        <v>982.5462457644899</v>
+        <v>49.90285225279523</v>
       </c>
       <c r="F23" t="n">
-        <v>554.6788161736977</v>
+        <v>49.90285225279523</v>
       </c>
       <c r="G23" t="n">
-        <v>318.5160365770239</v>
+        <v>49.90285225279523</v>
       </c>
       <c r="H23" t="n">
-        <v>49.90285225279522</v>
+        <v>49.90285225279523</v>
       </c>
       <c r="I23" t="n">
-        <v>125.192146129649</v>
+        <v>125.1921461296498</v>
       </c>
       <c r="J23" t="n">
-        <v>291.8416560478764</v>
+        <v>291.8416560478771</v>
       </c>
       <c r="K23" t="n">
-        <v>541.6060719863817</v>
+        <v>541.6060719863824</v>
       </c>
       <c r="L23" t="n">
-        <v>851.4609156385199</v>
+        <v>851.4609156385205</v>
       </c>
       <c r="M23" t="n">
-        <v>1196.234131838215</v>
+        <v>1196.234131838216</v>
       </c>
       <c r="N23" t="n">
         <v>1546.586139125323</v>
       </c>
       <c r="O23" t="n">
-        <v>1877.413604793267</v>
+        <v>1877.413604793268</v>
       </c>
       <c r="P23" t="n">
-        <v>2159.767192776931</v>
+        <v>2159.767192776932</v>
       </c>
       <c r="Q23" t="n">
         <v>2371.802978448968</v>
@@ -6016,25 +6016,25 @@
         <v>2495.142612639761</v>
       </c>
       <c r="S23" t="n">
-        <v>2457.142437510218</v>
+        <v>2495.142612639761</v>
       </c>
       <c r="T23" t="n">
-        <v>2457.142437510218</v>
+        <v>2283.845119402024</v>
       </c>
       <c r="U23" t="n">
-        <v>2198.080404093057</v>
+        <v>2024.783085984863</v>
       </c>
       <c r="V23" t="n">
-        <v>1835.463454026884</v>
+        <v>2024.783085984863</v>
       </c>
       <c r="W23" t="n">
-        <v>1835.463454026884</v>
+        <v>2024.783085984863</v>
       </c>
       <c r="X23" t="n">
-        <v>1416.320990606195</v>
+        <v>1766.015978436979</v>
       </c>
       <c r="Y23" t="n">
-        <v>1416.320990606195</v>
+        <v>1357.729854736632</v>
       </c>
     </row>
     <row r="24">
@@ -6059,10 +6059,10 @@
         <v>165.5994478151846</v>
       </c>
       <c r="G24" t="n">
-        <v>81.28625329494413</v>
+        <v>81.28625329494415</v>
       </c>
       <c r="H24" t="n">
-        <v>49.90285225279522</v>
+        <v>49.90285225279523</v>
       </c>
       <c r="I24" t="n">
         <v>86.07360363779615</v>
@@ -6071,7 +6071,7 @@
         <v>185.3289100816567</v>
       </c>
       <c r="K24" t="n">
-        <v>354.972037946826</v>
+        <v>259.9894019238661</v>
       </c>
       <c r="L24" t="n">
         <v>488.0955226008687</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>734.8076143555542</v>
+        <v>751.1068732868457</v>
       </c>
       <c r="C25" t="n">
-        <v>562.2459028387791</v>
+        <v>578.5451617700706</v>
       </c>
       <c r="D25" t="n">
-        <v>396.3679100403018</v>
+        <v>412.6671689715934</v>
       </c>
       <c r="E25" t="n">
-        <v>226.609906291039</v>
+        <v>242.9091652223306</v>
       </c>
       <c r="F25" t="n">
-        <v>49.90285225279522</v>
+        <v>66.20211118408682</v>
       </c>
       <c r="G25" t="n">
-        <v>49.90285225279522</v>
+        <v>49.90285225279523</v>
       </c>
       <c r="H25" t="n">
-        <v>49.90285225279522</v>
+        <v>49.90285225279523</v>
       </c>
       <c r="I25" t="n">
-        <v>49.90285225279522</v>
+        <v>49.90285225279523</v>
       </c>
       <c r="J25" t="n">
         <v>198.7521269616892</v>
@@ -6153,46 +6153,46 @@
         <v>575.8386456160096</v>
       </c>
       <c r="L25" t="n">
-        <v>963.5541259678624</v>
+        <v>1124.993219091044</v>
       </c>
       <c r="M25" t="n">
-        <v>1101.616943572429</v>
+        <v>1263.056036695611</v>
       </c>
       <c r="N25" t="n">
-        <v>1236.396935959929</v>
+        <v>1397.836029083111</v>
       </c>
       <c r="O25" t="n">
-        <v>1780.557322929478</v>
+        <v>1780.557322929479</v>
       </c>
       <c r="P25" t="n">
         <v>2234.587891748231</v>
       </c>
       <c r="Q25" t="n">
-        <v>2476.532137525725</v>
+        <v>2476.532137525726</v>
       </c>
       <c r="R25" t="n">
         <v>2495.142612639761</v>
       </c>
       <c r="S25" t="n">
-        <v>2351.562104678986</v>
+        <v>2495.142612639761</v>
       </c>
       <c r="T25" t="n">
-        <v>2109.522305909176</v>
+        <v>2253.102813869952</v>
       </c>
       <c r="U25" t="n">
-        <v>1831.138321940814</v>
+        <v>1974.71882990159</v>
       </c>
       <c r="V25" t="n">
-        <v>1544.182813811245</v>
+        <v>1687.763321772021</v>
       </c>
       <c r="W25" t="n">
-        <v>1272.156409397536</v>
+        <v>1415.736917358312</v>
       </c>
       <c r="X25" t="n">
-        <v>1154.045903760433</v>
+        <v>1170.345162691725</v>
       </c>
       <c r="Y25" t="n">
-        <v>926.6262330745412</v>
+        <v>942.9254920058329</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1156.052974947556</v>
+        <v>2184.99174988138</v>
       </c>
       <c r="C26" t="n">
-        <v>717.910502130979</v>
+        <v>1746.849277064803</v>
       </c>
       <c r="D26" t="n">
-        <v>717.910502130979</v>
+        <v>1310.939492239248</v>
       </c>
       <c r="E26" t="n">
-        <v>717.910502130979</v>
+        <v>877.1647473975427</v>
       </c>
       <c r="F26" t="n">
-        <v>717.910502130979</v>
+        <v>449.2973178067504</v>
       </c>
       <c r="G26" t="n">
-        <v>318.5160365770239</v>
+        <v>49.90285225279523</v>
       </c>
       <c r="H26" t="n">
-        <v>49.90285225279524</v>
+        <v>49.90285225279523</v>
       </c>
       <c r="I26" t="n">
-        <v>125.1921461296497</v>
+        <v>125.1921461296499</v>
       </c>
       <c r="J26" t="n">
-        <v>291.8416560478771</v>
+        <v>291.8416560478773</v>
       </c>
       <c r="K26" t="n">
-        <v>541.6060719863824</v>
+        <v>541.6060719863825</v>
       </c>
       <c r="L26" t="n">
-        <v>851.4609156385205</v>
+        <v>851.4609156385206</v>
       </c>
       <c r="M26" t="n">
         <v>1196.234131838216</v>
@@ -6247,31 +6247,31 @@
         <v>2159.767192776932</v>
       </c>
       <c r="Q26" t="n">
-        <v>2371.802978448969</v>
+        <v>2371.802978448968</v>
       </c>
       <c r="R26" t="n">
-        <v>2495.142612639762</v>
+        <v>2495.142612639761</v>
       </c>
       <c r="S26" t="n">
-        <v>2495.142612639762</v>
+        <v>2495.142612639761</v>
       </c>
       <c r="T26" t="n">
-        <v>2283.845119402024</v>
+        <v>2495.142612639761</v>
       </c>
       <c r="U26" t="n">
-        <v>2024.783085984863</v>
+        <v>2495.142612639761</v>
       </c>
       <c r="V26" t="n">
-        <v>1987.20800002143</v>
+        <v>2495.142612639761</v>
       </c>
       <c r="W26" t="n">
-        <v>1582.352545432464</v>
+        <v>2495.142612639761</v>
       </c>
       <c r="X26" t="n">
-        <v>1582.352545432464</v>
+        <v>2495.142612639761</v>
       </c>
       <c r="Y26" t="n">
-        <v>1582.352545432464</v>
+        <v>2184.99174988138</v>
       </c>
     </row>
     <row r="27">
@@ -6299,34 +6299,34 @@
         <v>81.28625329494415</v>
       </c>
       <c r="H27" t="n">
-        <v>49.90285225279524</v>
+        <v>49.90285225279523</v>
       </c>
       <c r="I27" t="n">
-        <v>86.07360363779618</v>
+        <v>49.90285225279523</v>
       </c>
       <c r="J27" t="n">
-        <v>185.3289100816567</v>
+        <v>90.34627405869676</v>
       </c>
       <c r="K27" t="n">
-        <v>354.972037946826</v>
+        <v>259.9894019238661</v>
       </c>
       <c r="L27" t="n">
-        <v>488.095522600868</v>
+        <v>488.0955226008687</v>
       </c>
       <c r="M27" t="n">
-        <v>754.2846063602951</v>
+        <v>754.2846063602958</v>
       </c>
       <c r="N27" t="n">
-        <v>1027.518923096495</v>
+        <v>1027.518923096496</v>
       </c>
       <c r="O27" t="n">
-        <v>1277.474942253456</v>
+        <v>1277.474942253457</v>
       </c>
       <c r="P27" t="n">
         <v>1478.086684138829</v>
       </c>
       <c r="Q27" t="n">
-        <v>1612.190320866098</v>
+        <v>1612.190320866099</v>
       </c>
       <c r="R27" t="n">
         <v>1677.417474573878</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1093.048053126315</v>
+        <v>879.5527697397788</v>
       </c>
       <c r="C28" t="n">
-        <v>920.4863416095401</v>
+        <v>706.9910582230037</v>
       </c>
       <c r="D28" t="n">
-        <v>754.6083488110628</v>
+        <v>541.1130654245264</v>
       </c>
       <c r="E28" t="n">
-        <v>584.8503450618</v>
+        <v>541.1130654245264</v>
       </c>
       <c r="F28" t="n">
         <v>408.1432910235562</v>
@@ -6381,37 +6381,37 @@
         <v>111.538217580372</v>
       </c>
       <c r="I28" t="n">
-        <v>49.90285225279524</v>
+        <v>49.90285225279523</v>
       </c>
       <c r="J28" t="n">
-        <v>198.7521269616892</v>
+        <v>112.1724417969993</v>
       </c>
       <c r="K28" t="n">
-        <v>575.8386456160097</v>
+        <v>489.2589604513197</v>
       </c>
       <c r="L28" t="n">
-        <v>706.7833373230836</v>
+        <v>1038.413533926355</v>
       </c>
       <c r="M28" t="n">
-        <v>1304.330022108563</v>
+        <v>1176.476351530921</v>
       </c>
       <c r="N28" t="n">
-        <v>1439.110014496063</v>
+        <v>1311.256343918421</v>
       </c>
       <c r="O28" t="n">
-        <v>1780.557322929479</v>
+        <v>1855.41673088797</v>
       </c>
       <c r="P28" t="n">
-        <v>2234.587891748232</v>
+        <v>2309.447299706723</v>
       </c>
       <c r="Q28" t="n">
         <v>2476.532137525726</v>
       </c>
       <c r="R28" t="n">
-        <v>2495.142612639762</v>
+        <v>2495.142612639761</v>
       </c>
       <c r="S28" t="n">
-        <v>2351.562104678987</v>
+        <v>2351.562104678986</v>
       </c>
       <c r="T28" t="n">
         <v>2109.522305909177</v>
@@ -6420,16 +6420,16 @@
         <v>1831.138321940815</v>
       </c>
       <c r="V28" t="n">
-        <v>1544.182813811246</v>
+        <v>1544.182813811245</v>
       </c>
       <c r="W28" t="n">
-        <v>1272.156409397537</v>
+        <v>1544.182813811245</v>
       </c>
       <c r="X28" t="n">
-        <v>1272.156409397537</v>
+        <v>1298.791059144658</v>
       </c>
       <c r="Y28" t="n">
-        <v>1272.156409397537</v>
+        <v>1071.371388458766</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>485.8126370783507</v>
+        <v>1785.597284327424</v>
       </c>
       <c r="C29" t="n">
-        <v>485.8126370783507</v>
+        <v>1347.454811510848</v>
       </c>
       <c r="D29" t="n">
-        <v>49.90285225279524</v>
+        <v>911.5450266852923</v>
       </c>
       <c r="E29" t="n">
-        <v>49.90285225279524</v>
+        <v>477.7702818435875</v>
       </c>
       <c r="F29" t="n">
-        <v>49.90285225279524</v>
+        <v>49.90285225279523</v>
       </c>
       <c r="G29" t="n">
-        <v>49.90285225279524</v>
+        <v>49.90285225279523</v>
       </c>
       <c r="H29" t="n">
-        <v>49.90285225279524</v>
+        <v>49.90285225279523</v>
       </c>
       <c r="I29" t="n">
         <v>125.1921461296497</v>
@@ -6466,16 +6466,16 @@
         <v>291.8416560478771</v>
       </c>
       <c r="K29" t="n">
-        <v>541.6060719863824</v>
+        <v>541.6060719863823</v>
       </c>
       <c r="L29" t="n">
-        <v>851.4609156385205</v>
+        <v>851.4609156385202</v>
       </c>
       <c r="M29" t="n">
         <v>1196.234131838216</v>
       </c>
       <c r="N29" t="n">
-        <v>1546.586139125324</v>
+        <v>1546.586139125323</v>
       </c>
       <c r="O29" t="n">
         <v>1877.413604793268</v>
@@ -6484,31 +6484,31 @@
         <v>2159.767192776932</v>
       </c>
       <c r="Q29" t="n">
-        <v>2371.802978448969</v>
+        <v>2371.802978448968</v>
       </c>
       <c r="R29" t="n">
-        <v>2495.142612639762</v>
+        <v>2495.142612639761</v>
       </c>
       <c r="S29" t="n">
-        <v>2495.142612639762</v>
+        <v>2495.142612639761</v>
       </c>
       <c r="T29" t="n">
-        <v>2495.142612639762</v>
+        <v>2495.142612639761</v>
       </c>
       <c r="U29" t="n">
-        <v>2495.142612639762</v>
+        <v>2495.142612639761</v>
       </c>
       <c r="V29" t="n">
-        <v>2144.396249273261</v>
+        <v>2495.142612639761</v>
       </c>
       <c r="W29" t="n">
-        <v>1739.540794684294</v>
+        <v>2495.142612639761</v>
       </c>
       <c r="X29" t="n">
-        <v>1320.398331263605</v>
+        <v>2495.142612639761</v>
       </c>
       <c r="Y29" t="n">
-        <v>912.1122075632586</v>
+        <v>2211.896854812332</v>
       </c>
     </row>
     <row r="30">
@@ -6536,16 +6536,16 @@
         <v>81.28625329494415</v>
       </c>
       <c r="H30" t="n">
-        <v>49.90285225279524</v>
+        <v>49.90285225279523</v>
       </c>
       <c r="I30" t="n">
-        <v>49.90285225279524</v>
+        <v>86.07360363779615</v>
       </c>
       <c r="J30" t="n">
-        <v>90.34627405869671</v>
+        <v>90.34627405869676</v>
       </c>
       <c r="K30" t="n">
-        <v>259.989401923866</v>
+        <v>259.9894019238661</v>
       </c>
       <c r="L30" t="n">
         <v>488.0955226008687</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1093.048053126315</v>
+        <v>751.1068732868457</v>
       </c>
       <c r="C31" t="n">
-        <v>920.4863416095401</v>
+        <v>578.5451617700706</v>
       </c>
       <c r="D31" t="n">
-        <v>754.6083488110628</v>
+        <v>561.0605440747063</v>
       </c>
       <c r="E31" t="n">
-        <v>584.8503450618</v>
+        <v>391.3025403254435</v>
       </c>
       <c r="F31" t="n">
-        <v>408.1432910235562</v>
+        <v>214.5954862871997</v>
       </c>
       <c r="G31" t="n">
-        <v>243.4506569891518</v>
+        <v>49.90285225279523</v>
       </c>
       <c r="H31" t="n">
-        <v>111.538217580372</v>
+        <v>49.90285225279523</v>
       </c>
       <c r="I31" t="n">
-        <v>49.90285225279524</v>
+        <v>49.90285225279523</v>
       </c>
       <c r="J31" t="n">
-        <v>198.7521269616892</v>
+        <v>112.1724417969993</v>
       </c>
       <c r="K31" t="n">
-        <v>575.8386456160096</v>
+        <v>214.5005058801841</v>
       </c>
       <c r="L31" t="n">
-        <v>1124.993219091044</v>
+        <v>689.4880976745504</v>
       </c>
       <c r="M31" t="n">
-        <v>1521.286192798211</v>
+        <v>827.5509152791166</v>
       </c>
       <c r="N31" t="n">
-        <v>1656.066185185711</v>
+        <v>1404.589710824261</v>
       </c>
       <c r="O31" t="n">
-        <v>1780.557322929479</v>
+        <v>1948.750097793811</v>
       </c>
       <c r="P31" t="n">
-        <v>2234.587891748232</v>
+        <v>2402.780666612563</v>
       </c>
       <c r="Q31" t="n">
         <v>2476.532137525726</v>
       </c>
       <c r="R31" t="n">
-        <v>2495.142612639762</v>
+        <v>2495.142612639761</v>
       </c>
       <c r="S31" t="n">
-        <v>2351.562104678987</v>
+        <v>2495.142612639761</v>
       </c>
       <c r="T31" t="n">
-        <v>2109.522305909177</v>
+        <v>2253.102813869952</v>
       </c>
       <c r="U31" t="n">
-        <v>1831.138321940815</v>
+        <v>1974.71882990159</v>
       </c>
       <c r="V31" t="n">
-        <v>1757.678097197782</v>
+        <v>1687.763321772021</v>
       </c>
       <c r="W31" t="n">
-        <v>1757.678097197782</v>
+        <v>1415.736917358312</v>
       </c>
       <c r="X31" t="n">
-        <v>1512.286342531194</v>
+        <v>1170.345162691725</v>
       </c>
       <c r="Y31" t="n">
-        <v>1284.866671845302</v>
+        <v>942.9254920058329</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>836.5590004448517</v>
+        <v>1349.687499501869</v>
       </c>
       <c r="C32" t="n">
-        <v>398.416527628275</v>
+        <v>911.5450266852923</v>
       </c>
       <c r="D32" t="n">
-        <v>49.90285225279524</v>
+        <v>911.5450266852923</v>
       </c>
       <c r="E32" t="n">
-        <v>49.90285225279524</v>
+        <v>477.7702818435875</v>
       </c>
       <c r="F32" t="n">
-        <v>49.90285225279524</v>
+        <v>49.90285225279523</v>
       </c>
       <c r="G32" t="n">
-        <v>49.90285225279524</v>
+        <v>49.90285225279523</v>
       </c>
       <c r="H32" t="n">
-        <v>49.90285225279524</v>
+        <v>49.90285225279523</v>
       </c>
       <c r="I32" t="n">
-        <v>125.1921461296497</v>
+        <v>125.1921461296499</v>
       </c>
       <c r="J32" t="n">
-        <v>291.8416560478772</v>
+        <v>291.8416560478773</v>
       </c>
       <c r="K32" t="n">
-        <v>541.6060719863824</v>
+        <v>541.6060719863825</v>
       </c>
       <c r="L32" t="n">
-        <v>851.4609156385205</v>
+        <v>851.4609156385206</v>
       </c>
       <c r="M32" t="n">
         <v>1196.234131838216</v>
@@ -6721,31 +6721,31 @@
         <v>2159.767192776932</v>
       </c>
       <c r="Q32" t="n">
-        <v>2371.802978448969</v>
+        <v>2371.802978448968</v>
       </c>
       <c r="R32" t="n">
-        <v>2495.142612639762</v>
+        <v>2495.142612639761</v>
       </c>
       <c r="S32" t="n">
-        <v>2495.142612639762</v>
+        <v>2495.142612639761</v>
       </c>
       <c r="T32" t="n">
-        <v>2495.142612639762</v>
+        <v>2283.845119402024</v>
       </c>
       <c r="U32" t="n">
-        <v>2495.142612639762</v>
+        <v>2283.845119402024</v>
       </c>
       <c r="V32" t="n">
-        <v>2495.142612639762</v>
+        <v>2283.845119402024</v>
       </c>
       <c r="W32" t="n">
-        <v>2090.287158050795</v>
+        <v>2283.845119402024</v>
       </c>
       <c r="X32" t="n">
-        <v>1671.144694630106</v>
+        <v>2184.273193687124</v>
       </c>
       <c r="Y32" t="n">
-        <v>1262.858570929759</v>
+        <v>1775.987069986777</v>
       </c>
     </row>
     <row r="33">
@@ -6773,16 +6773,16 @@
         <v>81.28625329494415</v>
       </c>
       <c r="H33" t="n">
-        <v>49.90285225279524</v>
+        <v>49.90285225279523</v>
       </c>
       <c r="I33" t="n">
-        <v>86.07360363779618</v>
+        <v>86.07360363779615</v>
       </c>
       <c r="J33" t="n">
         <v>185.3289100816567</v>
       </c>
       <c r="K33" t="n">
-        <v>259.989401923866</v>
+        <v>259.9894019238661</v>
       </c>
       <c r="L33" t="n">
         <v>488.0955226008687</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1031.412687798738</v>
+        <v>607.5263653260704</v>
       </c>
       <c r="C34" t="n">
-        <v>858.8509762819632</v>
+        <v>434.9646538092953</v>
       </c>
       <c r="D34" t="n">
-        <v>692.9729834834859</v>
+        <v>269.086661010818</v>
       </c>
       <c r="E34" t="n">
-        <v>523.2149797342232</v>
+        <v>269.086661010818</v>
       </c>
       <c r="F34" t="n">
-        <v>346.5079256959795</v>
+        <v>92.37960697257424</v>
       </c>
       <c r="G34" t="n">
-        <v>181.815291661575</v>
+        <v>49.90285225279523</v>
       </c>
       <c r="H34" t="n">
-        <v>49.90285225279524</v>
+        <v>49.90285225279523</v>
       </c>
       <c r="I34" t="n">
-        <v>49.90285225279524</v>
+        <v>49.90285225279523</v>
       </c>
       <c r="J34" t="n">
         <v>198.7521269616892</v>
       </c>
       <c r="K34" t="n">
-        <v>301.080191044874</v>
+        <v>575.8386456160096</v>
       </c>
       <c r="L34" t="n">
-        <v>432.0248827519479</v>
+        <v>1124.993219091044</v>
       </c>
       <c r="M34" t="n">
-        <v>659.358140414785</v>
+        <v>1263.056036695611</v>
       </c>
       <c r="N34" t="n">
-        <v>1236.39693595993</v>
+        <v>1397.836029083111</v>
       </c>
       <c r="O34" t="n">
         <v>1780.557322929479</v>
       </c>
       <c r="P34" t="n">
-        <v>2234.587891748232</v>
+        <v>2234.587891748231</v>
       </c>
       <c r="Q34" t="n">
         <v>2476.532137525726</v>
       </c>
       <c r="R34" t="n">
-        <v>2495.142612639762</v>
+        <v>2495.142612639761</v>
       </c>
       <c r="S34" t="n">
-        <v>2495.142612639762</v>
+        <v>2351.562104678986</v>
       </c>
       <c r="T34" t="n">
-        <v>2495.142612639762</v>
+        <v>2109.522305909177</v>
       </c>
       <c r="U34" t="n">
-        <v>2255.024644413483</v>
+        <v>1831.138321940815</v>
       </c>
       <c r="V34" t="n">
-        <v>1968.069136283913</v>
+        <v>1544.182813811245</v>
       </c>
       <c r="W34" t="n">
-        <v>1696.042731870205</v>
+        <v>1272.156409397537</v>
       </c>
       <c r="X34" t="n">
-        <v>1450.650977203617</v>
+        <v>1026.764654730949</v>
       </c>
       <c r="Y34" t="n">
-        <v>1223.231306517725</v>
+        <v>799.3449840450576</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>836.5590004448508</v>
+        <v>1785.597284327424</v>
       </c>
       <c r="C35" t="n">
-        <v>398.4165276282741</v>
+        <v>1347.454811510848</v>
       </c>
       <c r="D35" t="n">
-        <v>49.90285225279522</v>
+        <v>911.5450266852923</v>
       </c>
       <c r="E35" t="n">
-        <v>49.90285225279522</v>
+        <v>477.7702818435875</v>
       </c>
       <c r="F35" t="n">
         <v>49.90285225279522</v>
@@ -6934,16 +6934,16 @@
         <v>49.90285225279522</v>
       </c>
       <c r="I35" t="n">
-        <v>125.192146129649</v>
+        <v>125.1921461296492</v>
       </c>
       <c r="J35" t="n">
-        <v>291.8416560478763</v>
+        <v>291.8416560478767</v>
       </c>
       <c r="K35" t="n">
-        <v>541.6060719863817</v>
+        <v>541.6060719863819</v>
       </c>
       <c r="L35" t="n">
-        <v>851.4609156385199</v>
+        <v>851.4609156385201</v>
       </c>
       <c r="M35" t="n">
         <v>1196.234131838216</v>
@@ -6952,7 +6952,7 @@
         <v>1546.586139125323</v>
       </c>
       <c r="O35" t="n">
-        <v>1877.413604793267</v>
+        <v>1877.413604793268</v>
       </c>
       <c r="P35" t="n">
         <v>2159.767192776931</v>
@@ -6964,25 +6964,25 @@
         <v>2495.142612639761</v>
       </c>
       <c r="S35" t="n">
-        <v>2495.142612639761</v>
+        <v>2457.142437510218</v>
       </c>
       <c r="T35" t="n">
-        <v>2495.142612639761</v>
+        <v>2457.142437510218</v>
       </c>
       <c r="U35" t="n">
-        <v>2495.142612639761</v>
+        <v>2457.142437510218</v>
       </c>
       <c r="V35" t="n">
-        <v>2495.142612639761</v>
+        <v>2457.142437510218</v>
       </c>
       <c r="W35" t="n">
-        <v>2090.287158050794</v>
+        <v>2457.142437510218</v>
       </c>
       <c r="X35" t="n">
-        <v>1671.144694630105</v>
+        <v>2457.142437510218</v>
       </c>
       <c r="Y35" t="n">
-        <v>1262.858570929759</v>
+        <v>2211.896854812332</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>86.07360363779615</v>
       </c>
       <c r="J36" t="n">
-        <v>185.3289100816567</v>
+        <v>90.34627405869676</v>
       </c>
       <c r="K36" t="n">
-        <v>325.2165556316459</v>
+        <v>259.9894019238661</v>
       </c>
       <c r="L36" t="n">
-        <v>553.3226763086486</v>
+        <v>488.0955226008687</v>
       </c>
       <c r="M36" t="n">
-        <v>819.5117600680758</v>
+        <v>754.2846063602958</v>
       </c>
       <c r="N36" t="n">
-        <v>1092.746076804276</v>
+        <v>1027.518923096496</v>
       </c>
       <c r="O36" t="n">
-        <v>1342.702095961237</v>
+        <v>1277.474942253457</v>
       </c>
       <c r="P36" t="n">
-        <v>1543.313837846609</v>
+        <v>1478.086684138829</v>
       </c>
       <c r="Q36" t="n">
-        <v>1677.417474573878</v>
+        <v>1612.190320866099</v>
       </c>
       <c r="R36" t="n">
         <v>1677.417474573878</v>
@@ -7074,22 +7074,22 @@
         <v>751.1068732868453</v>
       </c>
       <c r="C37" t="n">
-        <v>751.1068732868453</v>
+        <v>578.5451617700702</v>
       </c>
       <c r="D37" t="n">
-        <v>585.228880488368</v>
+        <v>578.5451617700702</v>
       </c>
       <c r="E37" t="n">
-        <v>415.4708767391052</v>
+        <v>408.7871580208075</v>
       </c>
       <c r="F37" t="n">
-        <v>238.7638227008614</v>
+        <v>232.0801039825637</v>
       </c>
       <c r="G37" t="n">
-        <v>238.7638227008614</v>
+        <v>181.815291661575</v>
       </c>
       <c r="H37" t="n">
-        <v>106.8513832920816</v>
+        <v>49.90285225279522</v>
       </c>
       <c r="I37" t="n">
         <v>49.90285225279522</v>
@@ -7101,19 +7101,19 @@
         <v>214.5005058801841</v>
       </c>
       <c r="L37" t="n">
-        <v>763.6550793552191</v>
+        <v>577.5111244639787</v>
       </c>
       <c r="M37" t="n">
-        <v>901.7178969597852</v>
+        <v>1175.057809249458</v>
       </c>
       <c r="N37" t="n">
-        <v>1478.75669250493</v>
+        <v>1752.096604794603</v>
       </c>
       <c r="O37" t="n">
-        <v>2022.91707947448</v>
+        <v>2296.256991764152</v>
       </c>
       <c r="P37" t="n">
-        <v>2234.587891748231</v>
+        <v>2402.780666612563</v>
       </c>
       <c r="Q37" t="n">
         <v>2476.532137525725</v>
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2184.99174988138</v>
+        <v>1591.962759773111</v>
       </c>
       <c r="C38" t="n">
-        <v>1746.849277064803</v>
+        <v>1153.820286956535</v>
       </c>
       <c r="D38" t="n">
-        <v>1310.939492239248</v>
+        <v>717.910502130979</v>
       </c>
       <c r="E38" t="n">
-        <v>877.1647473975427</v>
+        <v>717.910502130979</v>
       </c>
       <c r="F38" t="n">
-        <v>449.2973178067504</v>
+        <v>717.910502130979</v>
       </c>
       <c r="G38" t="n">
-        <v>49.90285225279523</v>
+        <v>318.5160365770239</v>
       </c>
       <c r="H38" t="n">
         <v>49.90285225279523</v>
       </c>
       <c r="I38" t="n">
-        <v>125.1921461296493</v>
+        <v>125.1921461296497</v>
       </c>
       <c r="J38" t="n">
-        <v>291.8416560478766</v>
+        <v>291.8416560478772</v>
       </c>
       <c r="K38" t="n">
-        <v>541.6060719863819</v>
+        <v>541.6060719863824</v>
       </c>
       <c r="L38" t="n">
-        <v>851.4609156385201</v>
+        <v>851.4609156385206</v>
       </c>
       <c r="M38" t="n">
         <v>1196.234131838216</v>
       </c>
       <c r="N38" t="n">
-        <v>1546.586139125323</v>
+        <v>1546.586139125324</v>
       </c>
       <c r="O38" t="n">
         <v>1877.413604793268</v>
@@ -7204,22 +7204,22 @@
         <v>2457.142437510219</v>
       </c>
       <c r="T38" t="n">
-        <v>2457.142437510219</v>
+        <v>2245.844944272481</v>
       </c>
       <c r="U38" t="n">
-        <v>2457.142437510219</v>
+        <v>1986.78291085532</v>
       </c>
       <c r="V38" t="n">
-        <v>2184.99174988138</v>
+        <v>1624.165960789147</v>
       </c>
       <c r="W38" t="n">
-        <v>2184.99174988138</v>
+        <v>1591.962759773111</v>
       </c>
       <c r="X38" t="n">
-        <v>2184.99174988138</v>
+        <v>1591.962759773111</v>
       </c>
       <c r="Y38" t="n">
-        <v>2184.99174988138</v>
+        <v>1591.962759773111</v>
       </c>
     </row>
     <row r="39">
@@ -7244,7 +7244,7 @@
         <v>165.5994478151846</v>
       </c>
       <c r="G39" t="n">
-        <v>81.28625329494413</v>
+        <v>81.28625329494415</v>
       </c>
       <c r="H39" t="n">
         <v>49.90285225279523</v>
@@ -7256,13 +7256,13 @@
         <v>185.3289100816567</v>
       </c>
       <c r="K39" t="n">
-        <v>354.972037946826</v>
+        <v>259.9894019238661</v>
       </c>
       <c r="L39" t="n">
-        <v>583.0781586238287</v>
+        <v>488.0955226008687</v>
       </c>
       <c r="M39" t="n">
-        <v>849.2672423832558</v>
+        <v>754.2846063602958</v>
       </c>
       <c r="N39" t="n">
         <v>1027.518923096496</v>
@@ -7332,25 +7332,25 @@
         <v>49.90285225279523</v>
       </c>
       <c r="J40" t="n">
-        <v>198.7521269616892</v>
+        <v>112.1724417969993</v>
       </c>
       <c r="K40" t="n">
-        <v>575.8386456160096</v>
+        <v>214.5005058801841</v>
       </c>
       <c r="L40" t="n">
-        <v>963.5541259678624</v>
+        <v>763.6550793552191</v>
       </c>
       <c r="M40" t="n">
-        <v>1101.616943572429</v>
+        <v>901.7178969597852</v>
       </c>
       <c r="N40" t="n">
-        <v>1236.396935959929</v>
+        <v>1478.75669250493</v>
       </c>
       <c r="O40" t="n">
-        <v>1780.557322929478</v>
+        <v>2022.917079474479</v>
       </c>
       <c r="P40" t="n">
-        <v>2234.587891748231</v>
+        <v>2402.780666612563</v>
       </c>
       <c r="Q40" t="n">
         <v>2476.532137525726</v>
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1075.786135430254</v>
+        <v>1090.073144261974</v>
       </c>
       <c r="C41" t="n">
-        <v>637.643662613677</v>
+        <v>1090.073144261974</v>
       </c>
       <c r="D41" t="n">
-        <v>637.643662613677</v>
+        <v>1090.073144261974</v>
       </c>
       <c r="E41" t="n">
-        <v>449.2973178067504</v>
+        <v>656.2983994202696</v>
       </c>
       <c r="F41" t="n">
-        <v>449.2973178067504</v>
+        <v>228.4309698294773</v>
       </c>
       <c r="G41" t="n">
-        <v>49.90285225279524</v>
+        <v>49.90285225279521</v>
       </c>
       <c r="H41" t="n">
-        <v>49.90285225279524</v>
+        <v>49.90285225279521</v>
       </c>
       <c r="I41" t="n">
-        <v>125.1921461296497</v>
+        <v>125.1921461296492</v>
       </c>
       <c r="J41" t="n">
-        <v>291.8416560478772</v>
+        <v>291.8416560478765</v>
       </c>
       <c r="K41" t="n">
-        <v>541.6060719863825</v>
+        <v>541.6060719863817</v>
       </c>
       <c r="L41" t="n">
-        <v>851.4609156385205</v>
+        <v>851.4609156385199</v>
       </c>
       <c r="M41" t="n">
         <v>1196.234131838216</v>
       </c>
       <c r="N41" t="n">
-        <v>1546.586139125324</v>
+        <v>1546.586139125323</v>
       </c>
       <c r="O41" t="n">
-        <v>1877.413604793268</v>
+        <v>1877.413604793267</v>
       </c>
       <c r="P41" t="n">
-        <v>2159.767192776932</v>
+        <v>2159.767192776931</v>
       </c>
       <c r="Q41" t="n">
-        <v>2371.802978448969</v>
+        <v>2371.802978448967</v>
       </c>
       <c r="R41" t="n">
-        <v>2495.142612639762</v>
+        <v>2495.142612639761</v>
       </c>
       <c r="S41" t="n">
-        <v>2495.142612639762</v>
+        <v>2495.142612639761</v>
       </c>
       <c r="T41" t="n">
-        <v>2283.845119402024</v>
+        <v>2283.845119402023</v>
       </c>
       <c r="U41" t="n">
-        <v>2283.845119402024</v>
+        <v>2283.845119402023</v>
       </c>
       <c r="V41" t="n">
-        <v>1921.22816933585</v>
+        <v>1921.228169335849</v>
       </c>
       <c r="W41" t="n">
-        <v>1921.22816933585</v>
+        <v>1516.372714746882</v>
       </c>
       <c r="X41" t="n">
-        <v>1502.085705915161</v>
+        <v>1516.372714746882</v>
       </c>
       <c r="Y41" t="n">
-        <v>1502.085705915161</v>
+        <v>1516.372714746882</v>
       </c>
     </row>
     <row r="42">
@@ -7481,37 +7481,37 @@
         <v>165.5994478151846</v>
       </c>
       <c r="G42" t="n">
-        <v>81.28625329494415</v>
+        <v>81.28625329494412</v>
       </c>
       <c r="H42" t="n">
-        <v>49.90285225279524</v>
+        <v>49.90285225279521</v>
       </c>
       <c r="I42" t="n">
-        <v>86.07360363779618</v>
+        <v>86.07360363779615</v>
       </c>
       <c r="J42" t="n">
-        <v>185.3289100816567</v>
+        <v>90.34627405869676</v>
       </c>
       <c r="K42" t="n">
-        <v>354.972037946826</v>
+        <v>259.9894019238661</v>
       </c>
       <c r="L42" t="n">
-        <v>583.0781586238288</v>
+        <v>488.0955226008687</v>
       </c>
       <c r="M42" t="n">
-        <v>849.2672423832558</v>
+        <v>754.2846063602958</v>
       </c>
       <c r="N42" t="n">
-        <v>1122.501559119456</v>
+        <v>1027.518923096496</v>
       </c>
       <c r="O42" t="n">
-        <v>1372.457578276417</v>
+        <v>1277.474942253457</v>
       </c>
       <c r="P42" t="n">
-        <v>1573.069320161789</v>
+        <v>1478.086684138829</v>
       </c>
       <c r="Q42" t="n">
-        <v>1677.417474573878</v>
+        <v>1612.190320866099</v>
       </c>
       <c r="R42" t="n">
         <v>1677.417474573878</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>799.344984045058</v>
+        <v>618.5505668808141</v>
       </c>
       <c r="C43" t="n">
-        <v>626.783272528283</v>
+        <v>445.9888553640391</v>
       </c>
       <c r="D43" t="n">
-        <v>460.9052797298057</v>
+        <v>445.9888553640391</v>
       </c>
       <c r="E43" t="n">
-        <v>291.1472759805429</v>
+        <v>276.2308516147764</v>
       </c>
       <c r="F43" t="n">
-        <v>114.4402219422991</v>
+        <v>276.2308516147764</v>
       </c>
       <c r="G43" t="n">
-        <v>114.4402219422991</v>
+        <v>111.538217580372</v>
       </c>
       <c r="H43" t="n">
         <v>111.538217580372</v>
       </c>
       <c r="I43" t="n">
-        <v>49.90285225279524</v>
+        <v>49.90285225279521</v>
       </c>
       <c r="J43" t="n">
         <v>198.7521269616892</v>
       </c>
       <c r="K43" t="n">
-        <v>575.8386456160097</v>
+        <v>301.0801910448739</v>
       </c>
       <c r="L43" t="n">
-        <v>1124.993219091045</v>
+        <v>432.0248827519478</v>
       </c>
       <c r="M43" t="n">
-        <v>1263.056036695611</v>
+        <v>1029.571567537427</v>
       </c>
       <c r="N43" t="n">
-        <v>1397.836029083111</v>
+        <v>1606.610363082571</v>
       </c>
       <c r="O43" t="n">
-        <v>1780.557322929479</v>
+        <v>2150.770750052121</v>
       </c>
       <c r="P43" t="n">
-        <v>2234.587891748232</v>
+        <v>2257.294424900532</v>
       </c>
       <c r="Q43" t="n">
-        <v>2476.532137525726</v>
+        <v>2476.532137525725</v>
       </c>
       <c r="R43" t="n">
-        <v>2495.142612639762</v>
+        <v>2495.142612639761</v>
       </c>
       <c r="S43" t="n">
-        <v>2351.562104678987</v>
+        <v>2351.562104678985</v>
       </c>
       <c r="T43" t="n">
-        <v>2109.522305909177</v>
+        <v>2109.522305909176</v>
       </c>
       <c r="U43" t="n">
-        <v>1831.138321940815</v>
+        <v>1831.138321940814</v>
       </c>
       <c r="V43" t="n">
-        <v>1544.182813811246</v>
+        <v>1544.182813811244</v>
       </c>
       <c r="W43" t="n">
-        <v>1272.156409397537</v>
+        <v>1272.156409397536</v>
       </c>
       <c r="X43" t="n">
-        <v>1026.76465473095</v>
+        <v>1037.788856285693</v>
       </c>
       <c r="Y43" t="n">
-        <v>799.344984045058</v>
+        <v>810.3691855998013</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>483.6775970945001</v>
+        <v>2030.842867025311</v>
       </c>
       <c r="C44" t="n">
-        <v>483.6775970945001</v>
+        <v>1592.700394208734</v>
       </c>
       <c r="D44" t="n">
-        <v>483.6775970945001</v>
+        <v>1156.790609383179</v>
       </c>
       <c r="E44" t="n">
-        <v>49.90285225279524</v>
+        <v>723.015864541474</v>
       </c>
       <c r="F44" t="n">
-        <v>49.90285225279524</v>
+        <v>295.1484349506817</v>
       </c>
       <c r="G44" t="n">
-        <v>49.90285225279524</v>
+        <v>49.90285225279523</v>
       </c>
       <c r="H44" t="n">
-        <v>49.90285225279524</v>
+        <v>49.90285225279523</v>
       </c>
       <c r="I44" t="n">
         <v>125.1921461296497</v>
       </c>
       <c r="J44" t="n">
-        <v>291.8416560478771</v>
+        <v>291.8416560478772</v>
       </c>
       <c r="K44" t="n">
         <v>541.6060719863824</v>
@@ -7660,7 +7660,7 @@
         <v>1196.234131838216</v>
       </c>
       <c r="N44" t="n">
-        <v>1546.586139125324</v>
+        <v>1546.586139125323</v>
       </c>
       <c r="O44" t="n">
         <v>1877.413604793268</v>
@@ -7669,31 +7669,31 @@
         <v>2159.767192776932</v>
       </c>
       <c r="Q44" t="n">
-        <v>2371.802978448969</v>
+        <v>2371.802978448968</v>
       </c>
       <c r="R44" t="n">
-        <v>2495.142612639762</v>
+        <v>2495.142612639761</v>
       </c>
       <c r="S44" t="n">
         <v>2457.142437510219</v>
       </c>
       <c r="T44" t="n">
-        <v>2245.844944272481</v>
+        <v>2457.142437510219</v>
       </c>
       <c r="U44" t="n">
-        <v>1986.782910855321</v>
+        <v>2457.142437510219</v>
       </c>
       <c r="V44" t="n">
-        <v>1624.165960789147</v>
+        <v>2457.142437510219</v>
       </c>
       <c r="W44" t="n">
-        <v>1219.31050620018</v>
+        <v>2457.142437510219</v>
       </c>
       <c r="X44" t="n">
-        <v>800.1680427794912</v>
+        <v>2457.142437510219</v>
       </c>
       <c r="Y44" t="n">
-        <v>483.6775970945001</v>
+        <v>2457.142437510219</v>
       </c>
     </row>
     <row r="45">
@@ -7721,34 +7721,34 @@
         <v>81.28625329494415</v>
       </c>
       <c r="H45" t="n">
-        <v>49.90285225279524</v>
+        <v>49.90285225279523</v>
       </c>
       <c r="I45" t="n">
-        <v>49.90285225279524</v>
+        <v>86.07360363779615</v>
       </c>
       <c r="J45" t="n">
-        <v>149.1581586966558</v>
+        <v>90.34627405869676</v>
       </c>
       <c r="K45" t="n">
-        <v>259.9894019238653</v>
+        <v>259.9894019238661</v>
       </c>
       <c r="L45" t="n">
-        <v>488.095522600868</v>
+        <v>488.0955226008687</v>
       </c>
       <c r="M45" t="n">
-        <v>754.2846063602951</v>
+        <v>754.2846063602958</v>
       </c>
       <c r="N45" t="n">
-        <v>1027.518923096495</v>
+        <v>1027.518923096496</v>
       </c>
       <c r="O45" t="n">
-        <v>1277.474942253456</v>
+        <v>1277.474942253457</v>
       </c>
       <c r="P45" t="n">
         <v>1478.086684138829</v>
       </c>
       <c r="Q45" t="n">
-        <v>1612.190320866098</v>
+        <v>1612.190320866099</v>
       </c>
       <c r="R45" t="n">
         <v>1677.417474573878</v>
@@ -7782,58 +7782,58 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>894.4818734556404</v>
+        <v>834.9460360119622</v>
       </c>
       <c r="C46" t="n">
-        <v>721.9201619388654</v>
+        <v>662.3843244951871</v>
       </c>
       <c r="D46" t="n">
-        <v>692.9729834834859</v>
+        <v>496.5063316967098</v>
       </c>
       <c r="E46" t="n">
-        <v>523.2149797342232</v>
+        <v>391.3025403254435</v>
       </c>
       <c r="F46" t="n">
-        <v>346.5079256959795</v>
+        <v>214.5954862871997</v>
       </c>
       <c r="G46" t="n">
-        <v>181.815291661575</v>
+        <v>49.90285225279523</v>
       </c>
       <c r="H46" t="n">
-        <v>49.90285225279524</v>
+        <v>49.90285225279523</v>
       </c>
       <c r="I46" t="n">
-        <v>49.90285225279524</v>
+        <v>49.90285225279523</v>
       </c>
       <c r="J46" t="n">
         <v>112.1724417969993</v>
       </c>
       <c r="K46" t="n">
-        <v>214.5005058801841</v>
+        <v>489.2589604513197</v>
       </c>
       <c r="L46" t="n">
-        <v>345.4451975872581</v>
+        <v>1038.413533926355</v>
       </c>
       <c r="M46" t="n">
-        <v>659.358140414785</v>
+        <v>1521.286192798211</v>
       </c>
       <c r="N46" t="n">
-        <v>1236.39693595993</v>
+        <v>1656.066185185711</v>
       </c>
       <c r="O46" t="n">
         <v>1780.557322929479</v>
       </c>
       <c r="P46" t="n">
-        <v>2234.587891748232</v>
+        <v>2234.587891748231</v>
       </c>
       <c r="Q46" t="n">
         <v>2476.532137525726</v>
       </c>
       <c r="R46" t="n">
-        <v>2495.142612639762</v>
+        <v>2495.142612639761</v>
       </c>
       <c r="S46" t="n">
-        <v>2351.562104678987</v>
+        <v>2351.562104678986</v>
       </c>
       <c r="T46" t="n">
         <v>2109.522305909177</v>
@@ -7842,16 +7842,16 @@
         <v>1831.138321940815</v>
       </c>
       <c r="V46" t="n">
-        <v>1831.138321940815</v>
+        <v>1544.182813811245</v>
       </c>
       <c r="W46" t="n">
-        <v>1559.111917527107</v>
+        <v>1272.156409397537</v>
       </c>
       <c r="X46" t="n">
-        <v>1313.720162860519</v>
+        <v>1026.764654730949</v>
       </c>
       <c r="Y46" t="n">
-        <v>1086.300492174628</v>
+        <v>1026.764654730949</v>
       </c>
     </row>
   </sheetData>
@@ -8862,7 +8862,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>177.1920849464598</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="P13" t="n">
         <v>351.0170646165068</v>
@@ -9093,13 +9093,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>177.1920849464598</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>351.0170646165068</v>
@@ -9324,22 +9324,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>156.730423204287</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N19" t="n">
-        <v>433.0638956244409</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>177.1920849464602</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>229.6216911390748</v>
       </c>
       <c r="P22" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9801,7 +9801,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>259.3644329745242</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -9810,7 +9810,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512944</v>
+        <v>260.8385415177777</v>
       </c>
       <c r="P25" t="n">
         <v>351.0170646165068</v>
@@ -10032,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>219.1476471612609</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821538</v>
+        <v>94.27612818771786</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>347.518080896255</v>
       </c>
       <c r="M31" t="n">
-        <v>260.8385415177779</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10509,19 +10509,19 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>90.17216167502124</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512944</v>
+        <v>260.8385415177777</v>
       </c>
       <c r="P34" t="n">
         <v>351.0170646165068</v>
@@ -10749,10 +10749,10 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>234.4100271482027</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
@@ -10761,10 +10761,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
-        <v>106.2092297225663</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>259.3644329745242</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
-        <v>351.0170646165068</v>
+        <v>276.1009215047206</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11220,25 +11220,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>260.8385415177777</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821538</v>
+        <v>146.9557997091215</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11457,19 +11457,19 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>177.6263891141018</v>
+        <v>348.2927689568585</v>
       </c>
       <c r="N46" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>351.0170646165068</v>
@@ -23266,16 +23266,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>65.64593753298988</v>
       </c>
       <c r="G11" t="n">
-        <v>182.846117086918</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23317,7 +23317,7 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -23326,7 +23326,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,13 +23427,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>6.651995635331275</v>
       </c>
       <c r="T13" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>72.74878251319979</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23503,10 +23503,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.06170608735099</v>
+        <v>40.06170608735098</v>
       </c>
       <c r="T14" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.4799845637012</v>
+        <v>23.90632609724506</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>62.55555096376548</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>114.8692533779063</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>131.0206200144773</v>
+        <v>131.0206200144772</v>
       </c>
       <c r="I16" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>137.6335508709657</v>
       </c>
     </row>
     <row r="17">
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>242.4071116387001</v>
       </c>
       <c r="C17" t="n">
-        <v>244.1056109436485</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735099</v>
+        <v>40.06170608735098</v>
       </c>
       <c r="T17" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -23901,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>113.2693808714471</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>131.0206200144772</v>
       </c>
       <c r="I19" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811442</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>114.8692533779052</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23971,13 +23971,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
@@ -23986,7 +23986,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
-        <v>52.79334446310668</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24031,7 +24031,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>212.9956448037542</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24138,13 +24138,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>137.2011797333086</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
         <v>62.46433369811443</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>151.6391547027489</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24208,22 +24208,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>161.5993690977086</v>
+        <v>395.4005208984156</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>265.9270524809863</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>37.6201733782473</v>
       </c>
       <c r="T23" t="n">
-        <v>209.1845183053605</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>158.7716023140772</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.0457076940604</v>
+        <v>146.9094413520817</v>
       </c>
       <c r="H25" t="n">
         <v>130.593315014692</v>
       </c>
       <c r="I25" t="n">
-        <v>61.01901167430096</v>
+        <v>61.01901167430097</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>142.1447028811674</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>126.0084365391893</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>265.9270524809863</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>37.62017337824729</v>
+        <v>37.6201733782473</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.1845183053605</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.471413082989</v>
       </c>
       <c r="V26" t="n">
-        <v>321.7914454617129</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>97.15390833254526</v>
       </c>
     </row>
     <row r="27">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>12.58315982328728</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,10 +24609,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>43.29990684090077</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24682,16 +24682,16 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>395.4005208984156</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>37.62017337824729</v>
+        <v>37.6201733782473</v>
       </c>
       <c r="T29" t="n">
         <v>209.1845183053605</v>
@@ -24739,16 +24739,16 @@
         <v>256.471413082989</v>
       </c>
       <c r="V29" t="n">
-        <v>11.75188083267568</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>123.7899622141881</v>
       </c>
     </row>
     <row r="30">
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>146.9094413520818</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>130.593315014692</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>61.01901167430097</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.1447028811674</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,10 +24897,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>211.3603305526705</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24922,13 +24922,13 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>86.52214835557498</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>395.4005208984156</v>
@@ -24967,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>37.62017337824729</v>
+        <v>37.6201733782473</v>
       </c>
       <c r="T32" t="n">
-        <v>209.1845183053605</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>256.471413082989</v>
@@ -24979,10 +24979,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>316.3748323287315</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>120.9937205214791</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>130.593315014692</v>
       </c>
       <c r="I34" t="n">
-        <v>61.01901167430096</v>
+        <v>61.01901167430097</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>142.1447028811674</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>239.619400782111</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>37.88335558466196</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25159,13 +25159,13 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>86.52214835557589</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>395.4005208984156</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>37.62017337824729</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>209.1845183053605</v>
@@ -25216,13 +25216,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>161.4101355924358</v>
       </c>
     </row>
     <row r="36">
@@ -25314,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.0457076940604</v>
+        <v>113.2835434962816</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>4.639965945407418</v>
+        <v>61.01901167430097</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25399,16 +25399,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>265.9270524809863</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25444,16 +25444,16 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>209.1845183053605</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.471413082989</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>89.56159981296111</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>368.9257310372018</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
@@ -25569,7 +25569,7 @@
         <v>130.593315014692</v>
       </c>
       <c r="I40" t="n">
-        <v>61.01901167430096</v>
+        <v>61.01901167430097</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25630,19 +25630,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>242.9741160344305</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>218.6576844975004</v>
       </c>
       <c r="H41" t="n">
         <v>265.9270524809863</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>37.62017337824729</v>
+        <v>37.6201733782473</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25690,10 +25690,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.0457076940604</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>127.7203306963841</v>
+        <v>130.593315014692</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>10.91395953919721</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>395.4005208984156</v>
+        <v>152.607394027508</v>
       </c>
       <c r="H44" t="n">
         <v>265.9270524809863</v>
@@ -25918,22 +25918,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.1845183053605</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.471413082989</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>90.87772123520188</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -26028,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>135.5615061996669</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>63.90867025421645</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>130.593315014692</v>
       </c>
       <c r="I46" t="n">
-        <v>61.01901167430096</v>
+        <v>61.01901167430097</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>313283.353185837</v>
+        <v>313283.3531858371</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>313283.353185837</v>
+        <v>313283.3531858371</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>313283.3531858371</v>
+        <v>313283.353185837</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>327441.8464232692</v>
+        <v>327441.8464232691</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>327441.8464232692</v>
+        <v>327441.8464232691</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>327441.8464232692</v>
+        <v>327441.8464232691</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>327441.8464232691</v>
+        <v>327441.8464232692</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>327441.8464232692</v>
+        <v>327441.846423269</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>327441.8464232692</v>
+        <v>327441.8464232691</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>431792.3221340781</v>
+        <v>431792.322134078</v>
       </c>
       <c r="C2" t="n">
         <v>431792.3221340781</v>
@@ -26322,10 +26322,10 @@
         <v>431792.3221340781</v>
       </c>
       <c r="E2" t="n">
-        <v>259540.9926463486</v>
+        <v>259540.9926463487</v>
       </c>
       <c r="F2" t="n">
-        <v>259540.9926463486</v>
+        <v>259540.9926463487</v>
       </c>
       <c r="G2" t="n">
         <v>259540.9926463486</v>
@@ -26340,22 +26340,22 @@
         <v>271049.7840201989</v>
       </c>
       <c r="K2" t="n">
-        <v>271049.7840201989</v>
+        <v>271049.7840201988</v>
       </c>
       <c r="L2" t="n">
         <v>271049.7840201988</v>
       </c>
       <c r="M2" t="n">
-        <v>271049.7840201987</v>
+        <v>271049.7840201989</v>
       </c>
       <c r="N2" t="n">
         <v>271049.7840201988</v>
       </c>
       <c r="O2" t="n">
-        <v>271049.7840201989</v>
+        <v>271049.7840201987</v>
       </c>
       <c r="P2" t="n">
-        <v>271049.784020199</v>
+        <v>271049.7840201987</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>551135.2009906758</v>
+        <v>551135.2009906759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>29024.76432745918</v>
+        <v>29024.76432745914</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>147050.7684025715</v>
+        <v>147050.7684025714</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="D4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="E4" t="n">
         <v>22750.61565481864</v>
@@ -26438,28 +26438,28 @@
         <v>22750.61565481864</v>
       </c>
       <c r="I4" t="n">
-        <v>24025.92715692894</v>
+        <v>24025.92715692895</v>
       </c>
       <c r="J4" t="n">
         <v>24025.92715692896</v>
       </c>
       <c r="K4" t="n">
-        <v>24025.92715692896</v>
+        <v>24025.92715692895</v>
       </c>
       <c r="L4" t="n">
-        <v>24025.92715692896</v>
+        <v>24025.92715692895</v>
       </c>
       <c r="M4" t="n">
         <v>24025.92715692894</v>
       </c>
       <c r="N4" t="n">
-        <v>24025.92715692894</v>
+        <v>24025.92715692895</v>
       </c>
       <c r="O4" t="n">
+        <v>24025.92715692893</v>
+      </c>
+      <c r="P4" t="n">
         <v>24025.92715692895</v>
-      </c>
-      <c r="P4" t="n">
-        <v>24025.92715692896</v>
       </c>
     </row>
     <row r="5">
@@ -26478,28 +26478,28 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963783</v>
       </c>
       <c r="F5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963783</v>
       </c>
       <c r="G5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963783</v>
       </c>
       <c r="H5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963783</v>
       </c>
       <c r="I5" t="n">
         <v>48681.28220745476</v>
       </c>
       <c r="J5" t="n">
-        <v>48681.28220745477</v>
+        <v>48681.28220745476</v>
       </c>
       <c r="K5" t="n">
-        <v>48681.28220745477</v>
+        <v>48681.28220745476</v>
       </c>
       <c r="L5" t="n">
-        <v>48681.28220745477</v>
+        <v>48681.28220745476</v>
       </c>
       <c r="M5" t="n">
         <v>48681.28220745476</v>
@@ -26508,10 +26508,10 @@
         <v>48681.28220745476</v>
       </c>
       <c r="O5" t="n">
-        <v>48681.28220745477</v>
+        <v>48681.28220745474</v>
       </c>
       <c r="P5" t="n">
-        <v>48681.28220745477</v>
+        <v>48681.28220745476</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>99434.00582224532</v>
+        <v>99402.09910474352</v>
       </c>
       <c r="C6" t="n">
-        <v>99434.00582224526</v>
+        <v>99402.0991047437</v>
       </c>
       <c r="D6" t="n">
-        <v>99434.00582224532</v>
+        <v>99402.0991047437</v>
       </c>
       <c r="E6" t="n">
-        <v>-360395.9052087837</v>
+        <v>-360949.7856520057</v>
       </c>
       <c r="F6" t="n">
-        <v>190739.2957818922</v>
+        <v>190185.4153386702</v>
       </c>
       <c r="G6" t="n">
-        <v>190739.2957818921</v>
+        <v>190185.4153386702</v>
       </c>
       <c r="H6" t="n">
-        <v>190739.2957818921</v>
+        <v>190185.4153386702</v>
       </c>
       <c r="I6" t="n">
-        <v>169317.8103283559</v>
+        <v>168798.8050105093</v>
       </c>
       <c r="J6" t="n">
-        <v>198342.5746558152</v>
+        <v>197823.5693379685</v>
       </c>
       <c r="K6" t="n">
-        <v>198342.5746558151</v>
+        <v>197823.5693379685</v>
       </c>
       <c r="L6" t="n">
-        <v>198342.5746558151</v>
+        <v>197823.5693379685</v>
       </c>
       <c r="M6" t="n">
-        <v>51291.80625324359</v>
+        <v>50772.80093539714</v>
       </c>
       <c r="N6" t="n">
-        <v>198342.5746558151</v>
+        <v>197823.5693379685</v>
       </c>
       <c r="O6" t="n">
-        <v>198342.5746558152</v>
+        <v>197823.5693379684</v>
       </c>
       <c r="P6" t="n">
-        <v>198342.5746558153</v>
+        <v>197823.5693379684</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932213</v>
       </c>
       <c r="F3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932213</v>
       </c>
       <c r="G3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932213</v>
       </c>
       <c r="H3" t="n">
         <v>466.7019280932212</v>
       </c>
       <c r="I3" t="n">
-        <v>493.3538759325868</v>
+        <v>493.3538759325867</v>
       </c>
       <c r="J3" t="n">
-        <v>493.3538759325868</v>
+        <v>493.3538759325867</v>
       </c>
       <c r="K3" t="n">
-        <v>493.3538759325868</v>
+        <v>493.3538759325867</v>
       </c>
       <c r="L3" t="n">
-        <v>493.3538759325868</v>
+        <v>493.3538759325867</v>
       </c>
       <c r="M3" t="n">
-        <v>493.3538759325868</v>
+        <v>493.3538759325867</v>
       </c>
       <c r="N3" t="n">
-        <v>493.3538759325868</v>
+        <v>493.3538759325867</v>
       </c>
       <c r="O3" t="n">
-        <v>493.3538759325868</v>
+        <v>493.3538759325867</v>
       </c>
       <c r="P3" t="n">
-        <v>493.3538759325868</v>
+        <v>493.3538759325867</v>
       </c>
     </row>
     <row r="4">
@@ -26798,28 +26798,28 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619344</v>
       </c>
       <c r="F4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619344</v>
       </c>
       <c r="G4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619344</v>
       </c>
       <c r="H4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619344</v>
       </c>
       <c r="I4" t="n">
-        <v>623.7856531599402</v>
+        <v>623.7856531599404</v>
       </c>
       <c r="J4" t="n">
-        <v>623.7856531599405</v>
+        <v>623.7856531599404</v>
       </c>
       <c r="K4" t="n">
-        <v>623.7856531599405</v>
+        <v>623.7856531599404</v>
       </c>
       <c r="L4" t="n">
-        <v>623.7856531599405</v>
+        <v>623.7856531599404</v>
       </c>
       <c r="M4" t="n">
         <v>623.7856531599402</v>
@@ -26828,10 +26828,10 @@
         <v>623.7856531599404</v>
       </c>
       <c r="O4" t="n">
-        <v>623.7856531599405</v>
+        <v>623.7856531599401</v>
       </c>
       <c r="P4" t="n">
-        <v>623.7856531599405</v>
+        <v>623.7856531599404</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932213</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.65194783936562</v>
+        <v>26.65194783936556</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619344</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619339</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619344</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31755,13 +31755,13 @@
         <v>1.876188655651139</v>
       </c>
       <c r="H11" t="n">
-        <v>19.21451706968723</v>
+        <v>19.21451706968724</v>
       </c>
       <c r="I11" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699062</v>
       </c>
       <c r="J11" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125711</v>
       </c>
       <c r="K11" t="n">
         <v>238.6582327062838</v>
@@ -31770,7 +31770,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816034</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994722</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.003849430238249</v>
+        <v>1.00384943023825</v>
       </c>
       <c r="H12" t="n">
         <v>9.695072128879938</v>
@@ -31840,22 +31840,22 @@
         <v>34.56235976916781</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562341</v>
       </c>
       <c r="K12" t="n">
-        <v>162.0996687415861</v>
+        <v>162.0996687415856</v>
       </c>
       <c r="L12" t="n">
         <v>217.9630089646691</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N12" t="n">
         <v>261.0845059811314</v>
       </c>
       <c r="O12" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P12" t="n">
         <v>191.6912126917233</v>
@@ -31864,7 +31864,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233626</v>
       </c>
       <c r="S12" t="n">
         <v>18.64606288183765</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238416</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051978</v>
       </c>
       <c r="I13" t="n">
         <v>25.30901603495699</v>
       </c>
       <c r="J13" t="n">
-        <v>59.50067040624559</v>
+        <v>59.5006704062456</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116994</v>
       </c>
       <c r="L13" t="n">
         <v>125.1220218366646</v>
@@ -31943,13 +31943,13 @@
         <v>70.4719911420764</v>
       </c>
       <c r="R13" t="n">
-        <v>37.84111043195199</v>
+        <v>37.841110431952</v>
       </c>
       <c r="S13" t="n">
         <v>14.66668190417549</v>
       </c>
       <c r="T13" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701868</v>
       </c>
       <c r="U13" t="n">
         <v>0.0459051076813005</v>
@@ -31992,13 +31992,13 @@
         <v>1.876188655651139</v>
       </c>
       <c r="H14" t="n">
-        <v>19.21451706968723</v>
+        <v>19.21451706968724</v>
       </c>
       <c r="I14" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699062</v>
       </c>
       <c r="J14" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125711</v>
       </c>
       <c r="K14" t="n">
         <v>238.6582327062838</v>
@@ -32007,10 +32007,10 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816034</v>
       </c>
       <c r="N14" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994722</v>
       </c>
       <c r="O14" t="n">
         <v>316.1166813548411</v>
@@ -32025,10 +32025,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S14" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065038</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112867</v>
       </c>
       <c r="U14" t="n">
         <v>0.1500950924520911</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.003849430238249</v>
+        <v>1.00384943023825</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879938</v>
       </c>
       <c r="I15" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562341</v>
       </c>
       <c r="K15" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L15" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N15" t="n">
         <v>261.0845059811314</v>
       </c>
       <c r="O15" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742727</v>
       </c>
       <c r="P15" t="n">
         <v>191.6912126917233</v>
@@ -32101,16 +32101,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233626</v>
       </c>
       <c r="S15" t="n">
-        <v>18.64606288183764</v>
+        <v>18.64606288183765</v>
       </c>
       <c r="T15" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356907</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,25 +32147,25 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238416</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051978</v>
       </c>
       <c r="I16" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495699</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624558</v>
+        <v>59.5006704062456</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116994</v>
       </c>
       <c r="L16" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M16" t="n">
-        <v>131.9236286247772</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N16" t="n">
         <v>128.7867795998885</v>
@@ -32177,19 +32177,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.47199114207639</v>
+        <v>70.4719911420764</v>
       </c>
       <c r="R16" t="n">
-        <v>37.84111043195198</v>
+        <v>37.841110431952</v>
       </c>
       <c r="S16" t="n">
         <v>14.66668190417549</v>
       </c>
       <c r="T16" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701868</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.0459051076813005</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,13 +32229,13 @@
         <v>1.876188655651139</v>
       </c>
       <c r="H17" t="n">
-        <v>19.21451706968723</v>
+        <v>19.21451706968724</v>
       </c>
       <c r="I17" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699062</v>
       </c>
       <c r="J17" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125711</v>
       </c>
       <c r="K17" t="n">
         <v>238.6582327062838</v>
@@ -32244,10 +32244,10 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816034</v>
       </c>
       <c r="N17" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994722</v>
       </c>
       <c r="O17" t="n">
         <v>316.1166813548411</v>
@@ -32262,10 +32262,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S17" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065038</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112867</v>
       </c>
       <c r="U17" t="n">
         <v>0.1500950924520911</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.003849430238249</v>
+        <v>1.00384943023825</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879938</v>
       </c>
       <c r="I18" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916724</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562341</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L18" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N18" t="n">
         <v>261.0845059811314</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P18" t="n">
         <v>191.6912126917233</v>
@@ -32338,16 +32338,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233626</v>
       </c>
       <c r="S18" t="n">
-        <v>18.64606288183764</v>
+        <v>18.64606288183765</v>
       </c>
       <c r="T18" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356907</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,25 +32384,25 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238416</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051978</v>
       </c>
       <c r="I19" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495699</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624558</v>
+        <v>59.5006704062456</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116994</v>
       </c>
       <c r="L19" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M19" t="n">
-        <v>131.9236286247772</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N19" t="n">
         <v>128.7867795998885</v>
@@ -32414,19 +32414,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.47199114207639</v>
+        <v>70.4719911420764</v>
       </c>
       <c r="R19" t="n">
-        <v>37.84111043195198</v>
+        <v>37.841110431952</v>
       </c>
       <c r="S19" t="n">
         <v>14.66668190417549</v>
       </c>
       <c r="T19" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701868</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.0459051076813005</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32709,7 +32709,7 @@
         <v>76.46241327393389</v>
       </c>
       <c r="J23" t="n">
-        <v>168.3328383012398</v>
+        <v>168.3328383012397</v>
       </c>
       <c r="K23" t="n">
         <v>252.287288826773</v>
@@ -32721,13 +32721,13 @@
         <v>348.2557739390867</v>
       </c>
       <c r="N23" t="n">
-        <v>353.8909164516233</v>
+        <v>353.8909164516232</v>
       </c>
       <c r="O23" t="n">
-        <v>334.1691572403483</v>
+        <v>334.1691572403482</v>
       </c>
       <c r="P23" t="n">
-        <v>285.2056444279433</v>
+        <v>285.2056444279432</v>
       </c>
       <c r="Q23" t="n">
         <v>214.1775612848849</v>
@@ -32736,13 +32736,13 @@
         <v>124.5854890816095</v>
       </c>
       <c r="S23" t="n">
-        <v>45.19518169975407</v>
+        <v>45.19518169975406</v>
       </c>
       <c r="T23" t="n">
-        <v>8.682036550331249</v>
+        <v>8.682036550331247</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1586665731642489</v>
+        <v>0.1586665731642488</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32791,16 +32791,16 @@
         <v>100.2578852968288</v>
       </c>
       <c r="K24" t="n">
-        <v>171.3566948133023</v>
+        <v>75.41463822445394</v>
       </c>
       <c r="L24" t="n">
-        <v>134.4681663172149</v>
+        <v>230.4102229060633</v>
       </c>
       <c r="M24" t="n">
         <v>268.8778623832598</v>
       </c>
       <c r="N24" t="n">
-        <v>275.994259329495</v>
+        <v>275.9942593294949</v>
       </c>
       <c r="O24" t="n">
         <v>252.4808274312739</v>
@@ -32815,7 +32815,7 @@
         <v>65.88601384624246</v>
       </c>
       <c r="S24" t="n">
-        <v>19.71088362806136</v>
+        <v>19.71088362806135</v>
       </c>
       <c r="T24" t="n">
         <v>4.277285018698557</v>
@@ -32858,10 +32858,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8896545303702383</v>
+        <v>0.8896545303702382</v>
       </c>
       <c r="H25" t="n">
-        <v>7.909837551837216</v>
+        <v>7.909837551837215</v>
       </c>
       <c r="I25" t="n">
         <v>26.75433805877045</v>
@@ -32870,7 +32870,7 @@
         <v>62.89857529717585</v>
       </c>
       <c r="K25" t="n">
-        <v>103.3616808921059</v>
+        <v>103.3616808921058</v>
       </c>
       <c r="L25" t="n">
         <v>132.2673653606807</v>
@@ -32888,19 +32888,19 @@
         <v>107.5996715640513</v>
       </c>
       <c r="Q25" t="n">
-        <v>74.49643526582061</v>
+        <v>74.49643526582059</v>
       </c>
       <c r="R25" t="n">
         <v>40.00210279282907</v>
       </c>
       <c r="S25" t="n">
-        <v>15.50425213381588</v>
+        <v>15.50425213381587</v>
       </c>
       <c r="T25" t="n">
         <v>3.80125117521829</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04852661074746761</v>
+        <v>0.0485266107474676</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,46 +32940,46 @@
         <v>1.983332164553111</v>
       </c>
       <c r="H26" t="n">
-        <v>20.31180053022956</v>
+        <v>20.31180053022955</v>
       </c>
       <c r="I26" t="n">
-        <v>76.4624132739339</v>
+        <v>76.46241327393389</v>
       </c>
       <c r="J26" t="n">
-        <v>168.3328383012398</v>
+        <v>168.3328383012397</v>
       </c>
       <c r="K26" t="n">
-        <v>252.2872888267731</v>
+        <v>252.287288826773</v>
       </c>
       <c r="L26" t="n">
-        <v>312.9846905577154</v>
+        <v>312.9846905577153</v>
       </c>
       <c r="M26" t="n">
-        <v>348.2557739390868</v>
+        <v>348.2557739390867</v>
       </c>
       <c r="N26" t="n">
-        <v>353.8909164516234</v>
+        <v>353.8909164516232</v>
       </c>
       <c r="O26" t="n">
-        <v>334.1691572403483</v>
+        <v>334.1691572403482</v>
       </c>
       <c r="P26" t="n">
-        <v>285.2056444279434</v>
+        <v>285.2056444279432</v>
       </c>
       <c r="Q26" t="n">
-        <v>214.177561284885</v>
+        <v>214.1775612848849</v>
       </c>
       <c r="R26" t="n">
         <v>124.5854890816095</v>
       </c>
       <c r="S26" t="n">
-        <v>45.19518169975407</v>
+        <v>45.19518169975406</v>
       </c>
       <c r="T26" t="n">
-        <v>8.682036550331249</v>
+        <v>8.682036550331247</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1586665731642489</v>
+        <v>0.1586665731642488</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33022,25 +33022,25 @@
         <v>10.24872863022223</v>
       </c>
       <c r="I27" t="n">
-        <v>36.53611251010196</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>100.2578852968288</v>
+        <v>40.85194121808236</v>
       </c>
       <c r="K27" t="n">
-        <v>171.3566948133024</v>
+        <v>171.3566948133023</v>
       </c>
       <c r="L27" t="n">
-        <v>134.4681663172141</v>
+        <v>230.4102229060633</v>
       </c>
       <c r="M27" t="n">
         <v>268.8778623832598</v>
       </c>
       <c r="N27" t="n">
-        <v>275.994259329495</v>
+        <v>275.9942593294949</v>
       </c>
       <c r="O27" t="n">
-        <v>252.480827431274</v>
+        <v>252.4808274312739</v>
       </c>
       <c r="P27" t="n">
         <v>202.6381231165374</v>
@@ -33049,16 +33049,16 @@
         <v>135.458218916434</v>
       </c>
       <c r="R27" t="n">
-        <v>65.88601384624248</v>
+        <v>65.88601384624246</v>
       </c>
       <c r="S27" t="n">
-        <v>19.71088362806136</v>
+        <v>19.71088362806135</v>
       </c>
       <c r="T27" t="n">
-        <v>4.277285018698558</v>
+        <v>4.277285018698557</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06981422772630949</v>
+        <v>0.06981422772630948</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8896545303702384</v>
+        <v>0.8896545303702382</v>
       </c>
       <c r="H28" t="n">
-        <v>7.909837551837217</v>
+        <v>7.909837551837215</v>
       </c>
       <c r="I28" t="n">
         <v>26.75433805877045</v>
       </c>
       <c r="J28" t="n">
-        <v>62.89857529717586</v>
+        <v>62.89857529717585</v>
       </c>
       <c r="K28" t="n">
-        <v>103.3616808921059</v>
+        <v>103.3616808921058</v>
       </c>
       <c r="L28" t="n">
         <v>132.2673653606807</v>
@@ -33125,19 +33125,19 @@
         <v>107.5996715640513</v>
       </c>
       <c r="Q28" t="n">
-        <v>74.49643526582061</v>
+        <v>74.49643526582059</v>
       </c>
       <c r="R28" t="n">
-        <v>40.00210279282908</v>
+        <v>40.00210279282907</v>
       </c>
       <c r="S28" t="n">
-        <v>15.50425213381588</v>
+        <v>15.50425213381587</v>
       </c>
       <c r="T28" t="n">
-        <v>3.801251175218291</v>
+        <v>3.80125117521829</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04852661074746761</v>
+        <v>0.0485266107474676</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33183,7 +33183,7 @@
         <v>76.46241327393389</v>
       </c>
       <c r="J29" t="n">
-        <v>168.3328383012398</v>
+        <v>168.3328383012397</v>
       </c>
       <c r="K29" t="n">
         <v>252.287288826773</v>
@@ -33195,13 +33195,13 @@
         <v>348.2557739390867</v>
       </c>
       <c r="N29" t="n">
-        <v>353.8909164516233</v>
+        <v>353.8909164516232</v>
       </c>
       <c r="O29" t="n">
-        <v>334.1691572403483</v>
+        <v>334.1691572403482</v>
       </c>
       <c r="P29" t="n">
-        <v>285.2056444279433</v>
+        <v>285.2056444279432</v>
       </c>
       <c r="Q29" t="n">
         <v>214.1775612848849</v>
@@ -33210,13 +33210,13 @@
         <v>124.5854890816095</v>
       </c>
       <c r="S29" t="n">
-        <v>45.19518169975407</v>
+        <v>45.19518169975406</v>
       </c>
       <c r="T29" t="n">
-        <v>8.682036550331249</v>
+        <v>8.682036550331247</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1586665731642489</v>
+        <v>0.1586665731642488</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,10 +33259,10 @@
         <v>10.24872863022223</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>36.53611251010195</v>
       </c>
       <c r="J30" t="n">
-        <v>40.85194121808229</v>
+        <v>4.315828707980415</v>
       </c>
       <c r="K30" t="n">
         <v>171.3566948133023</v>
@@ -33274,7 +33274,7 @@
         <v>268.8778623832598</v>
       </c>
       <c r="N30" t="n">
-        <v>275.994259329495</v>
+        <v>275.9942593294949</v>
       </c>
       <c r="O30" t="n">
         <v>252.4808274312739</v>
@@ -33289,7 +33289,7 @@
         <v>65.88601384624246</v>
       </c>
       <c r="S30" t="n">
-        <v>19.71088362806136</v>
+        <v>19.71088362806135</v>
       </c>
       <c r="T30" t="n">
         <v>4.277285018698557</v>
@@ -33332,10 +33332,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8896545303702383</v>
+        <v>0.8896545303702382</v>
       </c>
       <c r="H31" t="n">
-        <v>7.909837551837216</v>
+        <v>7.909837551837215</v>
       </c>
       <c r="I31" t="n">
         <v>26.75433805877045</v>
@@ -33344,7 +33344,7 @@
         <v>62.89857529717585</v>
       </c>
       <c r="K31" t="n">
-        <v>103.3616808921059</v>
+        <v>103.3616808921058</v>
       </c>
       <c r="L31" t="n">
         <v>132.2673653606807</v>
@@ -33362,19 +33362,19 @@
         <v>107.5996715640513</v>
       </c>
       <c r="Q31" t="n">
-        <v>74.49643526582061</v>
+        <v>74.49643526582059</v>
       </c>
       <c r="R31" t="n">
         <v>40.00210279282907</v>
       </c>
       <c r="S31" t="n">
-        <v>15.50425213381588</v>
+        <v>15.50425213381587</v>
       </c>
       <c r="T31" t="n">
         <v>3.80125117521829</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04852661074746761</v>
+        <v>0.0485266107474676</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33420,7 +33420,7 @@
         <v>76.46241327393389</v>
       </c>
       <c r="J32" t="n">
-        <v>168.3328383012398</v>
+        <v>168.3328383012397</v>
       </c>
       <c r="K32" t="n">
         <v>252.287288826773</v>
@@ -33432,13 +33432,13 @@
         <v>348.2557739390867</v>
       </c>
       <c r="N32" t="n">
-        <v>353.8909164516233</v>
+        <v>353.8909164516232</v>
       </c>
       <c r="O32" t="n">
-        <v>334.1691572403483</v>
+        <v>334.1691572403482</v>
       </c>
       <c r="P32" t="n">
-        <v>285.2056444279433</v>
+        <v>285.2056444279432</v>
       </c>
       <c r="Q32" t="n">
         <v>214.1775612848849</v>
@@ -33447,13 +33447,13 @@
         <v>124.5854890816095</v>
       </c>
       <c r="S32" t="n">
-        <v>45.19518169975407</v>
+        <v>45.19518169975406</v>
       </c>
       <c r="T32" t="n">
-        <v>8.682036550331249</v>
+        <v>8.682036550331247</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1586665731642489</v>
+        <v>0.1586665731642488</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33502,7 +33502,7 @@
         <v>100.2578852968288</v>
       </c>
       <c r="K33" t="n">
-        <v>75.41463822445385</v>
+        <v>75.41463822445394</v>
       </c>
       <c r="L33" t="n">
         <v>230.4102229060633</v>
@@ -33511,7 +33511,7 @@
         <v>268.8778623832598</v>
       </c>
       <c r="N33" t="n">
-        <v>275.994259329495</v>
+        <v>275.9942593294949</v>
       </c>
       <c r="O33" t="n">
         <v>252.4808274312739</v>
@@ -33526,7 +33526,7 @@
         <v>65.88601384624246</v>
       </c>
       <c r="S33" t="n">
-        <v>19.71088362806136</v>
+        <v>19.71088362806135</v>
       </c>
       <c r="T33" t="n">
         <v>4.277285018698557</v>
@@ -33569,10 +33569,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8896545303702383</v>
+        <v>0.8896545303702382</v>
       </c>
       <c r="H34" t="n">
-        <v>7.909837551837216</v>
+        <v>7.909837551837215</v>
       </c>
       <c r="I34" t="n">
         <v>26.75433805877045</v>
@@ -33581,7 +33581,7 @@
         <v>62.89857529717585</v>
       </c>
       <c r="K34" t="n">
-        <v>103.3616808921059</v>
+        <v>103.3616808921058</v>
       </c>
       <c r="L34" t="n">
         <v>132.2673653606807</v>
@@ -33599,19 +33599,19 @@
         <v>107.5996715640513</v>
       </c>
       <c r="Q34" t="n">
-        <v>74.49643526582061</v>
+        <v>74.49643526582059</v>
       </c>
       <c r="R34" t="n">
         <v>40.00210279282907</v>
       </c>
       <c r="S34" t="n">
-        <v>15.50425213381588</v>
+        <v>15.50425213381587</v>
       </c>
       <c r="T34" t="n">
         <v>3.80125117521829</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04852661074746761</v>
+        <v>0.0485266107474676</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33657,7 +33657,7 @@
         <v>76.46241327393389</v>
       </c>
       <c r="J35" t="n">
-        <v>168.3328383012398</v>
+        <v>168.3328383012397</v>
       </c>
       <c r="K35" t="n">
         <v>252.287288826773</v>
@@ -33669,13 +33669,13 @@
         <v>348.2557739390867</v>
       </c>
       <c r="N35" t="n">
-        <v>353.8909164516233</v>
+        <v>353.8909164516232</v>
       </c>
       <c r="O35" t="n">
-        <v>334.1691572403483</v>
+        <v>334.1691572403482</v>
       </c>
       <c r="P35" t="n">
-        <v>285.2056444279433</v>
+        <v>285.2056444279432</v>
       </c>
       <c r="Q35" t="n">
         <v>214.1775612848849</v>
@@ -33684,13 +33684,13 @@
         <v>124.5854890816095</v>
       </c>
       <c r="S35" t="n">
-        <v>45.19518169975407</v>
+        <v>45.19518169975406</v>
       </c>
       <c r="T35" t="n">
-        <v>8.682036550331249</v>
+        <v>8.682036550331247</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1586665731642489</v>
+        <v>0.1586665731642488</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33736,10 +33736,10 @@
         <v>36.53611251010195</v>
       </c>
       <c r="J36" t="n">
-        <v>100.2578852968288</v>
+        <v>4.315828707980415</v>
       </c>
       <c r="K36" t="n">
-        <v>141.3006520706962</v>
+        <v>171.3566948133023</v>
       </c>
       <c r="L36" t="n">
         <v>230.4102229060633</v>
@@ -33748,7 +33748,7 @@
         <v>268.8778623832598</v>
       </c>
       <c r="N36" t="n">
-        <v>275.994259329495</v>
+        <v>275.9942593294949</v>
       </c>
       <c r="O36" t="n">
         <v>252.4808274312739</v>
@@ -33760,10 +33760,10 @@
         <v>135.458218916434</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>65.88601384624246</v>
       </c>
       <c r="S36" t="n">
-        <v>19.71088362806136</v>
+        <v>19.71088362806135</v>
       </c>
       <c r="T36" t="n">
         <v>4.277285018698557</v>
@@ -33806,10 +33806,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8896545303702383</v>
+        <v>0.8896545303702382</v>
       </c>
       <c r="H37" t="n">
-        <v>7.909837551837216</v>
+        <v>7.909837551837215</v>
       </c>
       <c r="I37" t="n">
         <v>26.75433805877045</v>
@@ -33818,7 +33818,7 @@
         <v>62.89857529717585</v>
       </c>
       <c r="K37" t="n">
-        <v>103.3616808921059</v>
+        <v>103.3616808921058</v>
       </c>
       <c r="L37" t="n">
         <v>132.2673653606807</v>
@@ -33836,19 +33836,19 @@
         <v>107.5996715640513</v>
       </c>
       <c r="Q37" t="n">
-        <v>74.49643526582061</v>
+        <v>74.49643526582059</v>
       </c>
       <c r="R37" t="n">
         <v>40.00210279282907</v>
       </c>
       <c r="S37" t="n">
-        <v>15.50425213381588</v>
+        <v>15.50425213381587</v>
       </c>
       <c r="T37" t="n">
         <v>3.80125117521829</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04852661074746761</v>
+        <v>0.0485266107474676</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33894,7 +33894,7 @@
         <v>76.46241327393389</v>
       </c>
       <c r="J38" t="n">
-        <v>168.3328383012398</v>
+        <v>168.3328383012397</v>
       </c>
       <c r="K38" t="n">
         <v>252.287288826773</v>
@@ -33906,13 +33906,13 @@
         <v>348.2557739390867</v>
       </c>
       <c r="N38" t="n">
-        <v>353.8909164516233</v>
+        <v>353.8909164516232</v>
       </c>
       <c r="O38" t="n">
-        <v>334.1691572403483</v>
+        <v>334.1691572403482</v>
       </c>
       <c r="P38" t="n">
-        <v>285.2056444279433</v>
+        <v>285.2056444279432</v>
       </c>
       <c r="Q38" t="n">
         <v>214.1775612848849</v>
@@ -33921,13 +33921,13 @@
         <v>124.5854890816095</v>
       </c>
       <c r="S38" t="n">
-        <v>45.19518169975407</v>
+        <v>45.19518169975406</v>
       </c>
       <c r="T38" t="n">
-        <v>8.682036550331249</v>
+        <v>8.682036550331247</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1586665731642489</v>
+        <v>0.1586665731642488</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33976,7 +33976,7 @@
         <v>100.2578852968288</v>
       </c>
       <c r="K39" t="n">
-        <v>171.3566948133023</v>
+        <v>75.41463822445394</v>
       </c>
       <c r="L39" t="n">
         <v>230.4102229060633</v>
@@ -33985,7 +33985,7 @@
         <v>268.8778623832598</v>
       </c>
       <c r="N39" t="n">
-        <v>180.0522027406465</v>
+        <v>275.9942593294949</v>
       </c>
       <c r="O39" t="n">
         <v>252.4808274312739</v>
@@ -34000,7 +34000,7 @@
         <v>65.88601384624246</v>
       </c>
       <c r="S39" t="n">
-        <v>19.71088362806136</v>
+        <v>19.71088362806135</v>
       </c>
       <c r="T39" t="n">
         <v>4.277285018698557</v>
@@ -34043,10 +34043,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8896545303702383</v>
+        <v>0.8896545303702382</v>
       </c>
       <c r="H40" t="n">
-        <v>7.909837551837216</v>
+        <v>7.909837551837215</v>
       </c>
       <c r="I40" t="n">
         <v>26.75433805877045</v>
@@ -34055,7 +34055,7 @@
         <v>62.89857529717585</v>
       </c>
       <c r="K40" t="n">
-        <v>103.3616808921059</v>
+        <v>103.3616808921058</v>
       </c>
       <c r="L40" t="n">
         <v>132.2673653606807</v>
@@ -34073,19 +34073,19 @@
         <v>107.5996715640513</v>
       </c>
       <c r="Q40" t="n">
-        <v>74.49643526582061</v>
+        <v>74.49643526582059</v>
       </c>
       <c r="R40" t="n">
         <v>40.00210279282907</v>
       </c>
       <c r="S40" t="n">
-        <v>15.50425213381588</v>
+        <v>15.50425213381587</v>
       </c>
       <c r="T40" t="n">
         <v>3.80125117521829</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04852661074746761</v>
+        <v>0.0485266107474676</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,46 +34125,46 @@
         <v>1.983332164553111</v>
       </c>
       <c r="H41" t="n">
-        <v>20.31180053022956</v>
+        <v>20.31180053022955</v>
       </c>
       <c r="I41" t="n">
-        <v>76.4624132739339</v>
+        <v>76.46241327393389</v>
       </c>
       <c r="J41" t="n">
-        <v>168.3328383012398</v>
+        <v>168.3328383012397</v>
       </c>
       <c r="K41" t="n">
-        <v>252.2872888267731</v>
+        <v>252.287288826773</v>
       </c>
       <c r="L41" t="n">
-        <v>312.9846905577154</v>
+        <v>312.9846905577153</v>
       </c>
       <c r="M41" t="n">
-        <v>348.2557739390868</v>
+        <v>348.2557739390867</v>
       </c>
       <c r="N41" t="n">
-        <v>353.8909164516234</v>
+        <v>353.8909164516232</v>
       </c>
       <c r="O41" t="n">
-        <v>334.1691572403483</v>
+        <v>334.1691572403482</v>
       </c>
       <c r="P41" t="n">
-        <v>285.2056444279434</v>
+        <v>285.2056444279432</v>
       </c>
       <c r="Q41" t="n">
-        <v>214.177561284885</v>
+        <v>214.1775612848849</v>
       </c>
       <c r="R41" t="n">
         <v>124.5854890816095</v>
       </c>
       <c r="S41" t="n">
-        <v>45.19518169975407</v>
+        <v>45.19518169975406</v>
       </c>
       <c r="T41" t="n">
-        <v>8.682036550331249</v>
+        <v>8.682036550331247</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1586665731642489</v>
+        <v>0.1586665731642488</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34207,43 +34207,43 @@
         <v>10.24872863022223</v>
       </c>
       <c r="I42" t="n">
-        <v>36.53611251010196</v>
+        <v>36.53611251010195</v>
       </c>
       <c r="J42" t="n">
-        <v>100.2578852968288</v>
+        <v>4.315828707980415</v>
       </c>
       <c r="K42" t="n">
-        <v>171.3566948133024</v>
+        <v>171.3566948133023</v>
       </c>
       <c r="L42" t="n">
-        <v>230.4102229060634</v>
+        <v>230.4102229060633</v>
       </c>
       <c r="M42" t="n">
         <v>268.8778623832598</v>
       </c>
       <c r="N42" t="n">
-        <v>275.994259329495</v>
+        <v>275.9942593294949</v>
       </c>
       <c r="O42" t="n">
-        <v>252.480827431274</v>
+        <v>252.4808274312739</v>
       </c>
       <c r="P42" t="n">
         <v>202.6381231165374</v>
       </c>
       <c r="Q42" t="n">
-        <v>105.4021761738277</v>
+        <v>135.458218916434</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>65.88601384624246</v>
       </c>
       <c r="S42" t="n">
-        <v>19.71088362806136</v>
+        <v>19.71088362806135</v>
       </c>
       <c r="T42" t="n">
-        <v>4.277285018698558</v>
+        <v>4.277285018698557</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06981422772630949</v>
+        <v>0.06981422772630948</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8896545303702384</v>
+        <v>0.8896545303702382</v>
       </c>
       <c r="H43" t="n">
-        <v>7.909837551837217</v>
+        <v>7.909837551837215</v>
       </c>
       <c r="I43" t="n">
         <v>26.75433805877045</v>
       </c>
       <c r="J43" t="n">
-        <v>62.89857529717586</v>
+        <v>62.89857529717585</v>
       </c>
       <c r="K43" t="n">
-        <v>103.3616808921059</v>
+        <v>103.3616808921058</v>
       </c>
       <c r="L43" t="n">
         <v>132.2673653606807</v>
@@ -34310,19 +34310,19 @@
         <v>107.5996715640513</v>
       </c>
       <c r="Q43" t="n">
-        <v>74.49643526582061</v>
+        <v>74.49643526582059</v>
       </c>
       <c r="R43" t="n">
-        <v>40.00210279282908</v>
+        <v>40.00210279282907</v>
       </c>
       <c r="S43" t="n">
-        <v>15.50425213381588</v>
+        <v>15.50425213381587</v>
       </c>
       <c r="T43" t="n">
-        <v>3.801251175218291</v>
+        <v>3.80125117521829</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04852661074746761</v>
+        <v>0.0485266107474676</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,46 +34362,46 @@
         <v>1.983332164553111</v>
       </c>
       <c r="H44" t="n">
-        <v>20.31180053022956</v>
+        <v>20.31180053022955</v>
       </c>
       <c r="I44" t="n">
-        <v>76.46241327393385</v>
+        <v>76.46241327393389</v>
       </c>
       <c r="J44" t="n">
-        <v>168.3328383012398</v>
+        <v>168.3328383012397</v>
       </c>
       <c r="K44" t="n">
-        <v>252.2872888267731</v>
+        <v>252.287288826773</v>
       </c>
       <c r="L44" t="n">
-        <v>312.9846905577154</v>
+        <v>312.9846905577153</v>
       </c>
       <c r="M44" t="n">
-        <v>348.2557739390868</v>
+        <v>348.2557739390867</v>
       </c>
       <c r="N44" t="n">
-        <v>353.8909164516234</v>
+        <v>353.8909164516232</v>
       </c>
       <c r="O44" t="n">
-        <v>334.1691572403483</v>
+        <v>334.1691572403482</v>
       </c>
       <c r="P44" t="n">
-        <v>285.2056444279434</v>
+        <v>285.2056444279432</v>
       </c>
       <c r="Q44" t="n">
-        <v>214.177561284885</v>
+        <v>214.1775612848849</v>
       </c>
       <c r="R44" t="n">
         <v>124.5854890816095</v>
       </c>
       <c r="S44" t="n">
-        <v>45.19518169975407</v>
+        <v>45.19518169975406</v>
       </c>
       <c r="T44" t="n">
-        <v>8.682036550331249</v>
+        <v>8.682036550331247</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1586665731642489</v>
+        <v>0.1586665731642488</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34444,25 +34444,25 @@
         <v>10.24872863022223</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>36.53611251010195</v>
       </c>
       <c r="J45" t="n">
-        <v>100.2578852968288</v>
+        <v>4.315828707980415</v>
       </c>
       <c r="K45" t="n">
-        <v>111.9507507345551</v>
+        <v>171.3566948133023</v>
       </c>
       <c r="L45" t="n">
-        <v>230.4102229060634</v>
+        <v>230.4102229060633</v>
       </c>
       <c r="M45" t="n">
         <v>268.8778623832598</v>
       </c>
       <c r="N45" t="n">
-        <v>275.994259329495</v>
+        <v>275.9942593294949</v>
       </c>
       <c r="O45" t="n">
-        <v>252.480827431274</v>
+        <v>252.4808274312739</v>
       </c>
       <c r="P45" t="n">
         <v>202.6381231165374</v>
@@ -34471,16 +34471,16 @@
         <v>135.458218916434</v>
       </c>
       <c r="R45" t="n">
-        <v>65.88601384624248</v>
+        <v>65.88601384624246</v>
       </c>
       <c r="S45" t="n">
-        <v>19.71088362806136</v>
+        <v>19.71088362806135</v>
       </c>
       <c r="T45" t="n">
-        <v>4.277285018698558</v>
+        <v>4.277285018698557</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06981422772630949</v>
+        <v>0.06981422772630948</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8896545303702384</v>
+        <v>0.8896545303702382</v>
       </c>
       <c r="H46" t="n">
-        <v>7.909837551837217</v>
+        <v>7.909837551837215</v>
       </c>
       <c r="I46" t="n">
         <v>26.75433805877045</v>
       </c>
       <c r="J46" t="n">
-        <v>62.89857529717586</v>
+        <v>62.89857529717585</v>
       </c>
       <c r="K46" t="n">
-        <v>103.3616808921059</v>
+        <v>103.3616808921058</v>
       </c>
       <c r="L46" t="n">
         <v>132.2673653606807</v>
@@ -34547,19 +34547,19 @@
         <v>107.5996715640513</v>
       </c>
       <c r="Q46" t="n">
-        <v>74.49643526582061</v>
+        <v>74.49643526582059</v>
       </c>
       <c r="R46" t="n">
-        <v>40.00210279282908</v>
+        <v>40.00210279282907</v>
       </c>
       <c r="S46" t="n">
-        <v>15.50425213381588</v>
+        <v>15.50425213381587</v>
       </c>
       <c r="T46" t="n">
-        <v>3.801251175218291</v>
+        <v>3.80125117521829</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04852661074746761</v>
+        <v>0.0485266107474676</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35406,19 +35406,19 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785922</v>
       </c>
       <c r="J11" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125711</v>
       </c>
       <c r="K11" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816035</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K12" t="n">
-        <v>162.0996687415861</v>
+        <v>162.0996687415856</v>
       </c>
       <c r="L12" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
@@ -35582,7 +35582,7 @@
         <v>128.7867795998884</v>
       </c>
       <c r="O13" t="n">
-        <v>296.1475206512698</v>
+        <v>296.1475206512703</v>
       </c>
       <c r="P13" t="n">
         <v>452.8039900485103</v>
@@ -35591,7 +35591,7 @@
         <v>240.36368292423</v>
       </c>
       <c r="R13" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027016</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35643,19 +35643,19 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785922</v>
       </c>
       <c r="J14" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125711</v>
       </c>
       <c r="K14" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816035</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K15" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L15" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811315</v>
       </c>
       <c r="O15" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742727</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>146.9548978453262</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K16" t="n">
-        <v>375.3116718572664</v>
+        <v>375.3116718572665</v>
       </c>
       <c r="L16" t="n">
-        <v>547.556245844706</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M16" t="n">
-        <v>131.9236286247772</v>
+        <v>309.1157135712374</v>
       </c>
       <c r="N16" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O16" t="n">
-        <v>296.1475206512696</v>
+        <v>118.95543570481</v>
       </c>
       <c r="P16" t="n">
         <v>452.8039900485103</v>
@@ -35828,7 +35828,7 @@
         <v>240.36368292423</v>
       </c>
       <c r="R16" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027016</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35880,19 +35880,19 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785922</v>
       </c>
       <c r="J17" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K17" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816035</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916724</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562341</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L18" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O18" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
@@ -36041,31 +36041,31 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624559</v>
       </c>
       <c r="K19" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116994</v>
       </c>
       <c r="L19" t="n">
-        <v>125.1220218366645</v>
+        <v>281.8524450409516</v>
       </c>
       <c r="M19" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619344</v>
       </c>
       <c r="N19" t="n">
-        <v>561.8506752243293</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O19" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P19" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
         <v>70.4719911420766</v>
       </c>
       <c r="R19" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027016</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J20" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K20" t="n">
         <v>238.6582327062838</v>
@@ -36129,7 +36129,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
@@ -36138,7 +36138,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
@@ -36196,22 +36196,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K21" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L21" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O21" t="n">
         <v>238.8413159742734</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624559</v>
       </c>
       <c r="K22" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L22" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M22" t="n">
-        <v>309.1157135712374</v>
+        <v>590.0818943619344</v>
       </c>
       <c r="N22" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O22" t="n">
-        <v>118.9554357048098</v>
+        <v>348.5771268438846</v>
       </c>
       <c r="P22" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q22" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R22" t="n">
         <v>16.63746735027015</v>
@@ -36357,10 +36357,10 @@
         <v>76.04979179480249</v>
       </c>
       <c r="J23" t="n">
-        <v>168.3328383012398</v>
+        <v>168.3328383012397</v>
       </c>
       <c r="K23" t="n">
-        <v>252.2872888267731</v>
+        <v>252.287288826773</v>
       </c>
       <c r="L23" t="n">
         <v>312.9846905577153</v>
@@ -36375,7 +36375,7 @@
         <v>334.1691572403483</v>
       </c>
       <c r="P23" t="n">
-        <v>285.2056444279433</v>
+        <v>285.2056444279431</v>
       </c>
       <c r="Q23" t="n">
         <v>214.1775612848851</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>36.53611251010195</v>
+        <v>36.53611251010194</v>
       </c>
       <c r="J24" t="n">
         <v>100.2578852968288</v>
       </c>
       <c r="K24" t="n">
-        <v>171.3566948133023</v>
+        <v>75.41463822445394</v>
       </c>
       <c r="L24" t="n">
-        <v>134.4681663172149</v>
+        <v>230.4102229060633</v>
       </c>
       <c r="M24" t="n">
         <v>268.8778623832598</v>
@@ -36521,16 +36521,16 @@
         <v>380.8954733882024</v>
       </c>
       <c r="L25" t="n">
-        <v>391.631798335205</v>
+        <v>554.7015893687222</v>
       </c>
       <c r="M25" t="n">
         <v>139.4573915197639</v>
       </c>
       <c r="N25" t="n">
-        <v>136.1414064520204</v>
+        <v>136.1414064520202</v>
       </c>
       <c r="O25" t="n">
-        <v>549.6569565348987</v>
+        <v>386.5871655013821</v>
       </c>
       <c r="P25" t="n">
         <v>458.6167361805583</v>
@@ -36591,28 +36591,28 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>76.0497917948025</v>
+        <v>76.04979179480249</v>
       </c>
       <c r="J26" t="n">
-        <v>168.3328383012398</v>
+        <v>168.3328383012397</v>
       </c>
       <c r="K26" t="n">
-        <v>252.2872888267731</v>
+        <v>252.287288826773</v>
       </c>
       <c r="L26" t="n">
         <v>312.9846905577153</v>
       </c>
       <c r="M26" t="n">
-        <v>348.2557739390868</v>
+        <v>348.2557739390867</v>
       </c>
       <c r="N26" t="n">
         <v>353.8909164516233</v>
       </c>
       <c r="O26" t="n">
-        <v>334.1691572403483</v>
+        <v>334.1691572403481</v>
       </c>
       <c r="P26" t="n">
-        <v>285.2056444279433</v>
+        <v>285.2056444279431</v>
       </c>
       <c r="Q26" t="n">
         <v>214.1775612848851</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>36.53611251010196</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>100.2578852968288</v>
+        <v>40.85194121808236</v>
       </c>
       <c r="K27" t="n">
-        <v>171.3566948133024</v>
+        <v>171.3566948133023</v>
       </c>
       <c r="L27" t="n">
-        <v>134.4681663172141</v>
+        <v>230.4102229060633</v>
       </c>
       <c r="M27" t="n">
         <v>268.8778623832598</v>
@@ -36688,16 +36688,16 @@
         <v>275.994259329495</v>
       </c>
       <c r="O27" t="n">
-        <v>252.4808274312741</v>
+        <v>252.4808274312738</v>
       </c>
       <c r="P27" t="n">
         <v>202.6381231165374</v>
       </c>
       <c r="Q27" t="n">
-        <v>135.4582189164341</v>
+        <v>135.4582189164339</v>
       </c>
       <c r="R27" t="n">
-        <v>65.88601384624258</v>
+        <v>65.88601384624235</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,31 +36752,31 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>150.3528027362565</v>
+        <v>62.89857529717584</v>
       </c>
       <c r="K28" t="n">
-        <v>380.8954733882025</v>
+        <v>380.8954733882024</v>
       </c>
       <c r="L28" t="n">
-        <v>132.2673653606807</v>
+        <v>554.7015893687221</v>
       </c>
       <c r="M28" t="n">
-        <v>603.5825098843225</v>
+        <v>139.4573915197639</v>
       </c>
       <c r="N28" t="n">
         <v>136.1414064520202</v>
       </c>
       <c r="O28" t="n">
-        <v>344.8962711448653</v>
+        <v>549.6569565348987</v>
       </c>
       <c r="P28" t="n">
-        <v>458.6167361805583</v>
+        <v>458.6167361805581</v>
       </c>
       <c r="Q28" t="n">
-        <v>244.3881270479742</v>
+        <v>168.7725634535386</v>
       </c>
       <c r="R28" t="n">
-        <v>18.79845971114724</v>
+        <v>18.79845971114723</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36837,10 +36837,10 @@
         <v>252.287288826773</v>
       </c>
       <c r="L29" t="n">
-        <v>312.9846905577153</v>
+        <v>312.9846905577151</v>
       </c>
       <c r="M29" t="n">
-        <v>348.2557739390868</v>
+        <v>348.2557739390867</v>
       </c>
       <c r="N29" t="n">
         <v>353.8909164516233</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>36.53611251010194</v>
       </c>
       <c r="J30" t="n">
-        <v>40.85194121808229</v>
+        <v>4.315828707980415</v>
       </c>
       <c r="K30" t="n">
         <v>171.3566948133023</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>150.3528027362565</v>
+        <v>62.89857529717584</v>
       </c>
       <c r="K31" t="n">
-        <v>380.8954733882024</v>
+        <v>103.3616808921059</v>
       </c>
       <c r="L31" t="n">
-        <v>554.7015893687222</v>
+        <v>479.7854462569358</v>
       </c>
       <c r="M31" t="n">
-        <v>400.2959330375418</v>
+        <v>139.4573915197637</v>
       </c>
       <c r="N31" t="n">
-        <v>136.1414064520204</v>
+        <v>582.8674702476209</v>
       </c>
       <c r="O31" t="n">
-        <v>125.7486239836044</v>
+        <v>549.6569565348987</v>
       </c>
       <c r="P31" t="n">
         <v>458.6167361805583</v>
       </c>
       <c r="Q31" t="n">
-        <v>244.3881270479742</v>
+        <v>74.49643526582076</v>
       </c>
       <c r="R31" t="n">
         <v>18.79845971114723</v>
@@ -37068,7 +37068,7 @@
         <v>76.04979179480249</v>
       </c>
       <c r="J32" t="n">
-        <v>168.3328383012399</v>
+        <v>168.3328383012397</v>
       </c>
       <c r="K32" t="n">
         <v>252.287288826773</v>
@@ -37077,16 +37077,16 @@
         <v>312.9846905577153</v>
       </c>
       <c r="M32" t="n">
-        <v>348.2557739390868</v>
+        <v>348.2557739390867</v>
       </c>
       <c r="N32" t="n">
         <v>353.8909164516233</v>
       </c>
       <c r="O32" t="n">
-        <v>334.1691572403483</v>
+        <v>334.1691572403481</v>
       </c>
       <c r="P32" t="n">
-        <v>285.2056444279433</v>
+        <v>285.2056444279431</v>
       </c>
       <c r="Q32" t="n">
         <v>214.1775612848851</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>36.53611251010196</v>
+        <v>36.53611251010194</v>
       </c>
       <c r="J33" t="n">
         <v>100.2578852968288</v>
       </c>
       <c r="K33" t="n">
-        <v>75.41463822445385</v>
+        <v>75.41463822445394</v>
       </c>
       <c r="L33" t="n">
         <v>230.4102229060633</v>
@@ -37229,19 +37229,19 @@
         <v>150.3528027362565</v>
       </c>
       <c r="K34" t="n">
-        <v>103.3616808921058</v>
+        <v>380.8954733882024</v>
       </c>
       <c r="L34" t="n">
-        <v>132.2673653606807</v>
+        <v>554.7015893687222</v>
       </c>
       <c r="M34" t="n">
-        <v>229.629553194785</v>
+        <v>139.4573915197639</v>
       </c>
       <c r="N34" t="n">
-        <v>582.867470247621</v>
+        <v>136.1414064520202</v>
       </c>
       <c r="O34" t="n">
-        <v>549.6569565348987</v>
+        <v>386.5871655013821</v>
       </c>
       <c r="P34" t="n">
         <v>458.6167361805583</v>
@@ -37305,25 +37305,25 @@
         <v>76.04979179480249</v>
       </c>
       <c r="J35" t="n">
-        <v>168.3328383012397</v>
+        <v>168.3328383012399</v>
       </c>
       <c r="K35" t="n">
-        <v>252.2872888267732</v>
+        <v>252.287288826773</v>
       </c>
       <c r="L35" t="n">
         <v>312.9846905577153</v>
       </c>
       <c r="M35" t="n">
-        <v>348.2557739390868</v>
+        <v>348.2557739390866</v>
       </c>
       <c r="N35" t="n">
-        <v>353.8909164516231</v>
+        <v>353.8909164516233</v>
       </c>
       <c r="O35" t="n">
         <v>334.1691572403483</v>
       </c>
       <c r="P35" t="n">
-        <v>285.2056444279433</v>
+        <v>285.2056444279431</v>
       </c>
       <c r="Q35" t="n">
         <v>214.1775612848851</v>
@@ -37384,10 +37384,10 @@
         <v>36.53611251010195</v>
       </c>
       <c r="J36" t="n">
-        <v>100.2578852968288</v>
+        <v>4.315828707980415</v>
       </c>
       <c r="K36" t="n">
-        <v>141.3006520706962</v>
+        <v>171.3566948133023</v>
       </c>
       <c r="L36" t="n">
         <v>230.4102229060633</v>
@@ -37408,7 +37408,7 @@
         <v>135.4582189164339</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>65.88601384624235</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37469,10 +37469,10 @@
         <v>103.3616808921059</v>
       </c>
       <c r="L37" t="n">
-        <v>554.7015893687222</v>
+        <v>366.6773925088835</v>
       </c>
       <c r="M37" t="n">
-        <v>139.4573915197637</v>
+        <v>603.5825098843225</v>
       </c>
       <c r="N37" t="n">
         <v>582.867470247621</v>
@@ -37481,10 +37481,10 @@
         <v>549.6569565348987</v>
       </c>
       <c r="P37" t="n">
-        <v>213.8089012866178</v>
+        <v>107.5996715640513</v>
       </c>
       <c r="Q37" t="n">
-        <v>244.3881270479742</v>
+        <v>74.49643526582076</v>
       </c>
       <c r="R37" t="n">
         <v>18.79845971114723</v>
@@ -37542,25 +37542,25 @@
         <v>76.04979179480249</v>
       </c>
       <c r="J38" t="n">
-        <v>168.3328383012397</v>
+        <v>168.3328383012399</v>
       </c>
       <c r="K38" t="n">
-        <v>252.2872888267731</v>
+        <v>252.287288826773</v>
       </c>
       <c r="L38" t="n">
-        <v>312.9846905577153</v>
+        <v>312.9846905577155</v>
       </c>
       <c r="M38" t="n">
-        <v>348.2557739390868</v>
+        <v>348.2557739390867</v>
       </c>
       <c r="N38" t="n">
         <v>353.8909164516233</v>
       </c>
       <c r="O38" t="n">
-        <v>334.1691572403483</v>
+        <v>334.1691572403481</v>
       </c>
       <c r="P38" t="n">
-        <v>285.2056444279433</v>
+        <v>285.2056444279431</v>
       </c>
       <c r="Q38" t="n">
         <v>214.1775612848851</v>
@@ -37624,7 +37624,7 @@
         <v>100.2578852968288</v>
       </c>
       <c r="K39" t="n">
-        <v>171.3566948133023</v>
+        <v>75.41463822445394</v>
       </c>
       <c r="L39" t="n">
         <v>230.4102229060633</v>
@@ -37633,7 +37633,7 @@
         <v>268.8778623832598</v>
       </c>
       <c r="N39" t="n">
-        <v>180.0522027406465</v>
+        <v>275.994259329495</v>
       </c>
       <c r="O39" t="n">
         <v>252.4808274312738</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>150.3528027362565</v>
+        <v>62.89857529717584</v>
       </c>
       <c r="K40" t="n">
-        <v>380.8954733882024</v>
+        <v>103.3616808921059</v>
       </c>
       <c r="L40" t="n">
-        <v>391.631798335205</v>
+        <v>554.7015893687222</v>
       </c>
       <c r="M40" t="n">
-        <v>139.4573915197639</v>
+        <v>139.4573915197637</v>
       </c>
       <c r="N40" t="n">
-        <v>136.1414064520204</v>
+        <v>582.8674702476208</v>
       </c>
       <c r="O40" t="n">
         <v>549.6569565348987</v>
       </c>
       <c r="P40" t="n">
-        <v>458.6167361805583</v>
+        <v>383.7005930687719</v>
       </c>
       <c r="Q40" t="n">
-        <v>244.3881270479746</v>
+        <v>74.49643526582076</v>
       </c>
       <c r="R40" t="n">
         <v>18.79845971114723</v>
@@ -37776,16 +37776,16 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>76.0497917948025</v>
+        <v>76.04979179480249</v>
       </c>
       <c r="J41" t="n">
-        <v>168.3328383012399</v>
+        <v>168.3328383012397</v>
       </c>
       <c r="K41" t="n">
-        <v>252.2872888267731</v>
+        <v>252.287288826773</v>
       </c>
       <c r="L41" t="n">
-        <v>312.9846905577152</v>
+        <v>312.9846905577153</v>
       </c>
       <c r="M41" t="n">
         <v>348.2557739390868</v>
@@ -37794,10 +37794,10 @@
         <v>353.8909164516233</v>
       </c>
       <c r="O41" t="n">
-        <v>334.1691572403483</v>
+        <v>334.1691572403479</v>
       </c>
       <c r="P41" t="n">
-        <v>285.2056444279433</v>
+        <v>285.2056444279431</v>
       </c>
       <c r="Q41" t="n">
         <v>214.1775612848851</v>
@@ -37858,19 +37858,19 @@
         <v>36.53611251010196</v>
       </c>
       <c r="J42" t="n">
-        <v>100.2578852968288</v>
+        <v>4.315828707980415</v>
       </c>
       <c r="K42" t="n">
-        <v>171.3566948133024</v>
+        <v>171.3566948133023</v>
       </c>
       <c r="L42" t="n">
-        <v>230.4102229060634</v>
+        <v>230.4102229060633</v>
       </c>
       <c r="M42" t="n">
-        <v>268.8778623832596</v>
+        <v>268.8778623832598</v>
       </c>
       <c r="N42" t="n">
-        <v>275.9942593294951</v>
+        <v>275.994259329495</v>
       </c>
       <c r="O42" t="n">
         <v>252.4808274312738</v>
@@ -37879,10 +37879,10 @@
         <v>202.6381231165374</v>
       </c>
       <c r="Q42" t="n">
-        <v>105.4021761738277</v>
+        <v>135.4582189164339</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>65.88601384624235</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37940,28 +37940,28 @@
         <v>150.3528027362565</v>
       </c>
       <c r="K43" t="n">
-        <v>380.8954733882025</v>
+        <v>103.3616808921058</v>
       </c>
       <c r="L43" t="n">
-        <v>554.7015893687224</v>
+        <v>132.2673653606807</v>
       </c>
       <c r="M43" t="n">
-        <v>139.4573915197639</v>
+        <v>603.5825098843225</v>
       </c>
       <c r="N43" t="n">
-        <v>136.1414064520204</v>
+        <v>582.8674702476208</v>
       </c>
       <c r="O43" t="n">
-        <v>386.5871655013821</v>
+        <v>549.6569565348987</v>
       </c>
       <c r="P43" t="n">
-        <v>458.6167361805583</v>
+        <v>107.5996715640513</v>
       </c>
       <c r="Q43" t="n">
-        <v>244.3881270479742</v>
+        <v>221.4522349749423</v>
       </c>
       <c r="R43" t="n">
-        <v>18.79845971114724</v>
+        <v>18.79845971114723</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38013,19 +38013,19 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>76.04979179480245</v>
+        <v>76.04979179480249</v>
       </c>
       <c r="J44" t="n">
-        <v>168.3328383012398</v>
+        <v>168.3328383012399</v>
       </c>
       <c r="K44" t="n">
-        <v>252.2872888267731</v>
+        <v>252.287288826773</v>
       </c>
       <c r="L44" t="n">
         <v>312.9846905577153</v>
       </c>
       <c r="M44" t="n">
-        <v>348.2557739390868</v>
+        <v>348.2557739390866</v>
       </c>
       <c r="N44" t="n">
         <v>353.8909164516233</v>
@@ -38034,7 +38034,7 @@
         <v>334.1691572403483</v>
       </c>
       <c r="P44" t="n">
-        <v>285.2056444279433</v>
+        <v>285.2056444279431</v>
       </c>
       <c r="Q44" t="n">
         <v>214.1775612848851</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>36.53611251010194</v>
       </c>
       <c r="J45" t="n">
-        <v>100.2578852968288</v>
+        <v>4.315828707980415</v>
       </c>
       <c r="K45" t="n">
-        <v>111.9507507345551</v>
+        <v>171.3566948133023</v>
       </c>
       <c r="L45" t="n">
         <v>230.4102229060633</v>
@@ -38110,16 +38110,16 @@
         <v>275.994259329495</v>
       </c>
       <c r="O45" t="n">
-        <v>252.4808274312741</v>
+        <v>252.4808274312738</v>
       </c>
       <c r="P45" t="n">
         <v>202.6381231165374</v>
       </c>
       <c r="Q45" t="n">
-        <v>135.4582189164341</v>
+        <v>135.4582189164339</v>
       </c>
       <c r="R45" t="n">
-        <v>65.88601384624258</v>
+        <v>65.88601384624235</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>62.89857529717585</v>
+        <v>62.89857529717584</v>
       </c>
       <c r="K46" t="n">
-        <v>103.3616808921059</v>
+        <v>380.8954733882024</v>
       </c>
       <c r="L46" t="n">
-        <v>132.2673653606807</v>
+        <v>554.7015893687221</v>
       </c>
       <c r="M46" t="n">
-        <v>317.0837806338656</v>
+        <v>487.7501604766223</v>
       </c>
       <c r="N46" t="n">
-        <v>582.867470247621</v>
+        <v>136.1414064520202</v>
       </c>
       <c r="O46" t="n">
-        <v>549.6569565348987</v>
+        <v>125.7486239836044</v>
       </c>
       <c r="P46" t="n">
         <v>458.6167361805583</v>
@@ -38198,7 +38198,7 @@
         <v>244.3881270479742</v>
       </c>
       <c r="R46" t="n">
-        <v>18.79845971114724</v>
+        <v>18.79845971114723</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
